--- a/Created_Python_Scripts/work_Postison_Cal.xlsx
+++ b/Created_Python_Scripts/work_Postison_Cal.xlsx
@@ -5,16 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould_private\work_Numerical_Calculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Documents\GitHub\mould_open\Created_Python_Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD97799-F080-422A-9CFA-F6553F85F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6EDC5C-4CF3-4E19-91B8-FF8AAD8C8C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47535" yWindow="0" windowWidth="18735" windowHeight="21600" tabRatio="682" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
+    <workbookView xWindow="45660" yWindow="0" windowWidth="19305" windowHeight="21600" tabRatio="682" xr2:uid="{331D296A-DE97-4357-9338-22F5C8F49D08}"/>
   </bookViews>
   <sheets>
     <sheet name="position" sheetId="75" r:id="rId1"/>
-    <sheet name="e00941" sheetId="83" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="660">
   <si>
     <t>l</t>
     <phoneticPr fontId="1"/>
@@ -15112,34 +15111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pos</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AC_len</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BD_len</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratioAC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratioBD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratioAve</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップ端 位置</t>
     <rPh sb="3" eb="4">
       <t>タン</t>
@@ -15273,10 +15244,6 @@
     <rPh sb="7" eb="11">
       <t>イドウキョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>e941</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -15294,7 +15261,7 @@
     <numFmt numFmtId="182" formatCode="\+0.000;\-0.000;0.000"/>
     <numFmt numFmtId="183" formatCode="0000_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -15362,22 +15329,8 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15405,12 +15358,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15726,7 +15673,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15988,22 +15935,10 @@
     <xf numFmtId="177" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16011,14 +15946,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{4500A0AD-3D4B-4F0D-B77F-6A2EA022C981}"/>
   </cellStyles>
-  <dxfs count="168">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="167">
     <dxf>
       <fill>
         <patternFill>
@@ -17504,7 +17432,7 @@
   <dimension ref="A1:T359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -17555,9 +17483,7 @@
       <c r="B2" s="77" t="s">
         <v>612</v>
       </c>
-      <c r="C2" s="78">
-        <v>1922</v>
-      </c>
+      <c r="C2" s="78"/>
       <c r="H2" s="9" t="s">
         <v>615</v>
       </c>
@@ -17566,7 +17492,7 @@
       </c>
       <c r="J2" s="11" t="str">
         <f>"O" &amp; $C$2</f>
-        <v>O1922</v>
+        <v>O</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ref="M2:M97" si="0">ROW(M2)</f>
@@ -17580,7 +17506,7 @@
       </c>
       <c r="P2" s="5" t="str">
         <f>IF(LEFT($C$20, 1)="e", "e" &amp; RIGHT("00000" &amp; MID($C$20, 2, LEN($C$20) - 1), 5), RIGHT("00000" &amp; $C$20, 5))</f>
-        <v>e00941</v>
+        <v>00000</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="9" t="s">
@@ -17618,7 +17544,7 @@
       </c>
       <c r="P3" s="36">
         <f>$C$8+($D$8+$E$8)/2</f>
-        <v>899.5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>44</v>
@@ -17647,11 +17573,11 @@
       </c>
       <c r="J4" s="27">
         <f>IF($C$10=0, $C$9+($D$8+$E$8)/4, $C$9)</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K4" s="27">
         <f>$C$118+$J$4</f>
-        <v>-750.22399999999993</v>
+        <v>-1149.9739999999999</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
@@ -17663,9 +17589,9 @@
       <c r="O4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="2" t="e">
         <f>-RADIANS($J$13)</f>
-        <v>8.4299402871326114E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>45</v>
@@ -17679,9 +17605,7 @@
       <c r="B5" s="81" t="s">
         <v>495</v>
       </c>
-      <c r="C5" s="79">
-        <v>1</v>
-      </c>
+      <c r="C5" s="79"/>
       <c r="G5" s="3" t="s">
         <v>96</v>
       </c>
@@ -17693,11 +17617,11 @@
       </c>
       <c r="J5" s="27">
         <f>$P$3-$J$4</f>
-        <v>499.75</v>
+        <v>0</v>
       </c>
       <c r="K5" s="27">
         <f>$C$118+$J$5</f>
-        <v>-650.22399999999993</v>
+        <v>-1149.9739999999999</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="0"/>
@@ -17709,9 +17633,9 @@
       <c r="O5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="2" t="e">
         <f>ASIN($P$30)</f>
-        <v>8.4377978104059857E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>46</v>
@@ -17725,9 +17649,7 @@
       <c r="B6" s="81" t="s">
         <v>628</v>
       </c>
-      <c r="C6" s="82">
-        <v>0</v>
-      </c>
+      <c r="C6" s="82"/>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17738,16 +17660,16 @@
       <c r="O6" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="2" t="e">
         <f>DEGREES($P$5)</f>
-        <v>0.48345020292099017</v>
+        <v>#NUM!</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="16" t="e">
         <f>P190-P191</f>
-        <v>5.4157287432262819</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
@@ -17757,9 +17679,7 @@
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29">
-        <v>5922.6750000000002</v>
-      </c>
+      <c r="C7" s="29"/>
       <c r="H7" s="4" t="s">
         <v>613</v>
       </c>
@@ -17771,31 +17691,25 @@
       <c r="N7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="2" t="e">
         <f>SIN($P$4)</f>
-        <v>8.4298404434246053E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="S7" s="16">
         <f>C116+$P$17/2</f>
-        <v>-650.05499999999995</v>
+        <v>-739.55499999999995</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="C8" s="29">
-        <v>900</v>
-      </c>
-      <c r="D8" s="75">
-        <v>0</v>
-      </c>
-      <c r="E8" s="75">
-        <v>-1</v>
-      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="2"/>
       <c r="H8" s="4" t="s">
         <v>449</v>
@@ -17814,9 +17728,9 @@
       <c r="N8" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="2" t="e">
         <f>COS($P$4)</f>
-        <v>0.99996446826379703</v>
+        <v>#NUM!</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>47</v>
@@ -17837,9 +17751,7 @@
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="80">
-        <v>400</v>
-      </c>
+      <c r="C9" s="80"/>
       <c r="F9" s="14"/>
       <c r="G9" s="3" t="s">
         <v>137</v>
@@ -17850,13 +17762,13 @@
       <c r="I9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="27" t="e">
         <f>$J$4+$P$29*$P$7</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K9" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" s="27" t="e">
         <f>$C$118+$J$9</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="0"/>
@@ -17870,7 +17782,7 @@
       </c>
       <c r="P9" s="2">
         <f>$C$11-$J$4</f>
-        <v>-399.75</v>
+        <v>0</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>11</v>
@@ -17888,9 +17800,7 @@
       <c r="B10" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="C10" s="56">
-        <v>0</v>
-      </c>
+      <c r="C10" s="56"/>
       <c r="G10" s="3" t="s">
         <v>138</v>
       </c>
@@ -17900,13 +17810,13 @@
       <c r="I10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="27" t="e">
         <f>$J$4+$J$5-$J$9</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K10" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" s="27" t="e">
         <f>$C$118+$J$10</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
@@ -17918,9 +17828,9 @@
       <c r="O10" s="45" t="s">
         <v>633</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="2" t="e">
         <f>$P$9/$P$29</f>
-        <v>-6.7459393009533561E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>48</v>
@@ -17948,9 +17858,9 @@
       <c r="I11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="27" t="e">
         <f>$J$9-$C$112</f>
-        <v>119.70343964602159</v>
+        <v>#NUM!</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="0"/>
@@ -17962,9 +17872,9 @@
       <c r="O11" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="2" t="e">
         <f>ASIN($P$10)</f>
-        <v>-6.751066343337675E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>14</v>
@@ -17987,9 +17897,9 @@
       <c r="I12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="42" t="e">
         <f>$J$10-$C$112</f>
-        <v>119.79656035397841</v>
+        <v>#NUM!</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="0"/>
@@ -18001,9 +17911,9 @@
       <c r="O12" s="45" t="s">
         <v>635</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="2" t="e">
         <f>DEGREES($P$11)</f>
-        <v>-3.8680760868606634</v>
+        <v>#NUM!</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>55</v>
@@ -18031,13 +17941,13 @@
       <c r="I13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="27" t="e">
         <f>IF($C$6=1,-ROUND($P$12,3),-ROUND($P$6,3))</f>
-        <v>-0.48299999999999998</v>
-      </c>
-      <c r="K13" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" s="27" t="e">
         <f>-$C$119+$J$13</f>
-        <v>-0.55599999999999994</v>
+        <v>#NUM!</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="0"/>
@@ -18046,9 +17956,9 @@
       <c r="N13" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="2" t="e">
         <f>SQRT($P$14^2-$P$15^2)</f>
-        <v>5724.2870871074419</v>
+        <v>#NUM!</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>51</v>
@@ -18066,15 +17976,9 @@
       <c r="B14" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="13">
-        <v>180</v>
-      </c>
-      <c r="D14" s="75">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="75">
-        <v>-0.25</v>
-      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="G14" s="3" t="s">
         <v>77</v>
       </c>
@@ -18084,13 +17988,13 @@
       <c r="I14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="27" t="e">
         <f>180+$J$13</f>
-        <v>179.517</v>
-      </c>
-      <c r="K14" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" s="27" t="e">
         <f>-$C$119+$J$14</f>
-        <v>179.44399999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="0"/>
@@ -18104,7 +18008,7 @@
       </c>
       <c r="P14" s="2">
         <f>$P$26-$C$114</f>
-        <v>5732.6750000000002</v>
+        <v>-100</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>52</v>
@@ -18122,15 +18026,9 @@
       <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="13">
-        <v>179</v>
-      </c>
-      <c r="D15" s="75">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="75">
-        <v>-0.25</v>
-      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
       <c r="H15" s="18"/>
       <c r="I15" s="20"/>
       <c r="J15" s="5"/>
@@ -18153,16 +18051,14 @@
       </c>
       <c r="S15" s="10">
         <f>P46-P31</f>
-        <v>1.8385581223938061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C16" s="13">
-        <v>18</v>
-      </c>
+      <c r="C16" s="13"/>
       <c r="H16" s="22" t="s">
         <v>373</v>
       </c>
@@ -18180,14 +18076,14 @@
       </c>
       <c r="P16" s="2">
         <f>$C$14+($D$14+$E$14)/2</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="S16" s="16">
         <f>$J$195+$J$196/2</f>
-        <v>28.174999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
@@ -18202,13 +18098,13 @@
       <c r="I17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="27" t="e">
         <f>$P$29*$P$8-$P$38</f>
-        <v>24.028347295468848</v>
-      </c>
-      <c r="K17" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K17" s="27" t="e">
         <f>$C$117+$J$17</f>
-        <v>-525.99065270453116</v>
+        <v>#NUM!</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="0"/>
@@ -18222,7 +18118,7 @@
       </c>
       <c r="P17" s="2">
         <f>$C$15+($D$15+$E$15)/2</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="R17" s="10" t="s">
         <v>42</v>
@@ -18250,13 +18146,13 @@
       <c r="I18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="27" t="e">
         <f ca="1">$J$17-$P$60-$P$115/2-$C$19-$P$20+$P$18/2</f>
-        <v>-53.408971921176565</v>
-      </c>
-      <c r="K18" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K18" s="27" t="e">
         <f ca="1">$C$117+$J$18</f>
-        <v>-603.42797192117655</v>
+        <v>#NUM!</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="0"/>
@@ -18288,9 +18184,7 @@
       <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="C19" s="13"/>
       <c r="G19" s="3" t="s">
         <v>461</v>
       </c>
@@ -18300,13 +18194,13 @@
       <c r="I19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="27" t="e">
         <f ca="1">$J$23+$C$44</f>
-        <v>62.100209685232308</v>
-      </c>
-      <c r="K19" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K19" s="27" t="e">
         <f ca="1">$C$117+$J$23</f>
-        <v>-487.9187903147677</v>
+        <v>#NUM!</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="0"/>
@@ -18335,15 +18229,9 @@
       <c r="B20" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>667</v>
-      </c>
-      <c r="D20" s="75">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="75">
-        <v>-0.25</v>
-      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
       <c r="G20" s="3" t="s">
         <v>463</v>
       </c>
@@ -18353,13 +18241,13 @@
       <c r="I20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="27" t="e">
         <f>$P$29*$P$8-$P$34</f>
-        <v>24.023425046341799</v>
-      </c>
-      <c r="K20" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K20" s="27" t="e">
         <f>$C$117+$J$20</f>
-        <v>-525.99557495365821</v>
+        <v>#NUM!</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="0"/>
@@ -18385,10 +18273,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B21" s="91" t="s">
-        <v>656</v>
-      </c>
-      <c r="C21" s="92">
+      <c r="B21" s="87" t="s">
+        <v>649</v>
+      </c>
+      <c r="C21" s="88">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -18400,13 +18288,13 @@
       <c r="I21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="27" t="e">
         <f>$P$37-$P$29*$P$8</f>
-        <v>-16.410601288787802</v>
-      </c>
-      <c r="K21" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K21" s="27" t="e">
         <f>$C$117+$J$21</f>
-        <v>-566.42960128878781</v>
+        <v>#NUM!</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="0"/>
@@ -18422,9 +18310,9 @@
       <c r="R21" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="26" t="e">
         <f>$C$64/$C$63+1</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
@@ -18438,13 +18326,13 @@
       <c r="I22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="27" t="e">
         <f ca="1">-$J$18+$C$44</f>
-        <v>53.408971921176565</v>
-      </c>
-      <c r="K22" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K22" s="27" t="e">
         <f ca="1">$C$117+$J$22</f>
-        <v>-496.61002807882346</v>
+        <v>#NUM!</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="0"/>
@@ -18460,18 +18348,16 @@
       <c r="R22" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="26" t="e">
         <f>$C$65/$C$63+1</f>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="84" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="85">
-        <v>0</v>
-      </c>
+      <c r="C23" s="85"/>
       <c r="G23" s="3" t="s">
         <v>464</v>
       </c>
@@ -18482,13 +18368,13 @@
       <c r="I23" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="27" t="e">
         <f ca="1">$J$21+$P$63+$P$112/2+$C$19+$P$24-$P$22/2</f>
-        <v>62.100209685232308</v>
-      </c>
-      <c r="K23" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K23" s="27" t="e">
         <f ca="1">$C$117+$J$23</f>
-        <v>-487.9187903147677</v>
+        <v>#NUM!</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="0"/>
@@ -18504,9 +18390,9 @@
       <c r="R23" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="S23" s="10">
-        <f ca="1">DEGREES($P$88)</f>
-        <v>286.47889756541161</v>
+      <c r="S23" s="10" t="e">
+        <f>DEGREES($P$88)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -18523,13 +18409,13 @@
       <c r="I24" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="27" t="e">
         <f>$P$31-$P$29*$P$8</f>
-        <v>-16.407464003218593</v>
-      </c>
-      <c r="K24" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K24" s="27" t="e">
         <f>$C$117+$J$24</f>
-        <v>-566.4264640032186</v>
+        <v>#NUM!</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="0"/>
@@ -18546,7 +18432,7 @@
         <v>53</v>
       </c>
       <c r="S24" s="10" t="e">
-        <f ca="1">S9*$P$135+S2*$P$96</f>
+        <f>S9*$P$135+S2*$P$96</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -18564,13 +18450,13 @@
       <c r="I25" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="27" t="e">
         <f>$P$47-$P$57-$J$186/2-$P$29*$P$8</f>
-        <v>-11.575758991481962</v>
-      </c>
-      <c r="K25" s="27">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="27" t="e">
         <f>$C$117+$J$25</f>
-        <v>-561.59475899148197</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="0"/>
@@ -18587,7 +18473,7 @@
         <v>54</v>
       </c>
       <c r="S25" s="10" t="e">
-        <f ca="1">-S$9*$P$96+S$2*$P$135</f>
+        <f>-S$9*$P$96+S$2*$P$135</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -18607,13 +18493,13 @@
       <c r="I26" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="27" t="e">
         <f>$J$24+$P$45</f>
-        <v>-14.568905880824786</v>
-      </c>
-      <c r="K26" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K26" s="27" t="e">
         <f>$C$117+$J$26</f>
-        <v>-564.58790588082479</v>
+        <v>#NUM!</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="0"/>
@@ -18627,7 +18513,7 @@
       </c>
       <c r="P26" s="2">
         <f>$C$7-$P$16/2</f>
-        <v>5832.6750000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
@@ -18648,7 +18534,7 @@
       </c>
       <c r="J27" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K27" s="44"/>
       <c r="M27" s="3">
@@ -18663,7 +18549,7 @@
       </c>
       <c r="P27" s="2">
         <f>$C$7+$P$16/2</f>
-        <v>6012.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2"/>
     </row>
@@ -18688,7 +18574,7 @@
       </c>
       <c r="P28" s="2">
         <f>($J$5-$J$4)/2</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2"/>
     </row>
@@ -18714,9 +18600,9 @@
       <c r="O29" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="2" t="e">
         <f>$C$115+$P$13</f>
-        <v>5925.7870871074419</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
@@ -18747,9 +18633,9 @@
       <c r="O30" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="2" t="e">
         <f>$P$28/$P$29</f>
-        <v>8.4376976872462244E-3</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.4">
@@ -18766,7 +18652,7 @@
       </c>
       <c r="J31" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
         <f t="shared" si="0"/>
@@ -18780,16 +18666,14 @@
       </c>
       <c r="P31" s="2">
         <f>SQRT($C$7^2-$J$4^2)</f>
-        <v>5909.169069600649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="85">
-        <v>0</v>
-      </c>
+      <c r="C32" s="85"/>
       <c r="G32" s="3" t="s">
         <v>79</v>
       </c>
@@ -18815,7 +18699,7 @@
       </c>
       <c r="P32" s="2">
         <f>SQRT($P$27^2-$J$4^2)</f>
-        <v>5999.3716831952497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -18832,9 +18716,9 @@
       <c r="I33" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="27" t="e">
         <f ca="1">$P$115</f>
-        <v>154.65</v>
+        <v>#REF!</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="0"/>
@@ -18848,7 +18732,7 @@
       </c>
       <c r="P33" s="2">
         <f>SQRT($P$26^2-$J$4^2)</f>
-        <v>5818.9601814349098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.4">
@@ -18865,13 +18749,13 @@
       <c r="I34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K34" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K34" s="27" t="e">
         <f>$C$118+$J$34</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
       <c r="M34" s="3">
         <f t="shared" si="0"/>
@@ -18885,7 +18769,7 @@
       </c>
       <c r="P34" s="2">
         <f>SQRT($C$7^2-$J$5^2)</f>
-        <v>5901.5531085575258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.4">
@@ -18904,7 +18788,7 @@
       </c>
       <c r="J35" s="27">
         <f>$J$5</f>
-        <v>499.75</v>
+        <v>0</v>
       </c>
       <c r="K35" s="44"/>
       <c r="M35" s="3">
@@ -18919,7 +18803,7 @@
       </c>
       <c r="P35" s="2">
         <f>SQRT($P$27^2-$J$5^2)</f>
-        <v>5991.8703751937928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
@@ -18954,7 +18838,7 @@
       </c>
       <c r="P36" s="2">
         <f>SQRT($P$26^2-$J$5^2)</f>
-        <v>5811.2259974230055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.4">
@@ -18973,9 +18857,9 @@
       <c r="I37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="27" cm="1">
+      <c r="J37" s="27" t="e" cm="1">
         <f t="array" ref="J37">_xlfn.IFS($C$77=1, $C$78, $C$81=1, $C$82)</f>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" si="0"/>
@@ -18989,7 +18873,7 @@
       </c>
       <c r="P37" s="2">
         <f>($P$32+$P$33)/2</f>
-        <v>5909.1659323150798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.4">
@@ -19010,7 +18894,7 @@
       </c>
       <c r="J38" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="M38" s="3">
         <f t="shared" si="0"/>
@@ -19024,7 +18908,7 @@
       </c>
       <c r="P38" s="2">
         <f>($P$35+$P$36)/2</f>
-        <v>5901.5481863083987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
@@ -19045,7 +18929,7 @@
       </c>
       <c r="J39" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="5"/>
       <c r="M39" s="3">
@@ -19060,7 +18944,7 @@
       </c>
       <c r="P39" s="2">
         <f>$J$195+$J$196/2</f>
-        <v>28.174999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
@@ -19082,7 +18966,7 @@
       </c>
       <c r="P40" s="2">
         <f>$J$4-$P$39</f>
-        <v>371.57499999999999</v>
+        <v>0</v>
       </c>
       <c r="R40" s="2"/>
     </row>
@@ -19104,7 +18988,7 @@
       </c>
       <c r="P41" s="2">
         <f>$J$195+$J$196</f>
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.4">
@@ -19137,7 +19021,7 @@
       </c>
       <c r="P42" s="2">
         <f>$J$4-$P$41</f>
-        <v>367.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.4">
@@ -19157,7 +19041,7 @@
       </c>
       <c r="J43" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="0"/>
@@ -19171,7 +19055,7 @@
       </c>
       <c r="P43" s="2">
         <f>$J$4-$J$195</f>
-        <v>375.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.4">
@@ -19190,13 +19074,13 @@
       <c r="I44" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J44" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K44" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" s="27" t="e">
         <f>$C$118+$J$44</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
       <c r="M44" s="3">
         <f t="shared" si="0"/>
@@ -19210,7 +19094,7 @@
       </c>
       <c r="P44" s="2">
         <f>$P$47-$P$32</f>
-        <v>1.8109231749313039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.4">
@@ -19229,16 +19113,14 @@
       </c>
       <c r="P45" s="2">
         <f>$P$46-$P$31</f>
-        <v>1.8385581223938061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="52">
-        <v>3</v>
-      </c>
+      <c r="C46" s="52"/>
       <c r="F46" s="2"/>
       <c r="H46" s="4" t="s">
         <v>433</v>
@@ -19257,16 +19139,14 @@
       </c>
       <c r="P46" s="2">
         <f>SQRT($C$7^2-$P$40^2)</f>
-        <v>5911.0076277230428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C47" s="52">
-        <v>0</v>
-      </c>
+      <c r="C47" s="52"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3" t="s">
         <v>484</v>
@@ -19277,9 +19157,9 @@
       <c r="I47" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J47" s="57">
+      <c r="J47" s="57" t="str">
         <f>IF(OR($C$77&lt;&gt;0, $C$81&lt;&gt;0), $C$150, "")</f>
-        <v>130001</v>
+        <v/>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="0"/>
@@ -19293,22 +19173,16 @@
       </c>
       <c r="P47" s="2">
         <f>SQRT($P$27^2-$P$40^2)</f>
-        <v>6001.182606370181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="13">
-        <v>174.36</v>
-      </c>
-      <c r="D48" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="75">
-        <v>-0.1</v>
-      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="2"/>
       <c r="G48" s="3" t="s">
         <v>79</v>
@@ -19319,9 +19193,9 @@
       <c r="I48" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J48" s="27">
+      <c r="J48" s="27" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH(ROUND($J$4+$J$5, 0), INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>154.65</v>
+        <v>#REF!</v>
       </c>
       <c r="M48" s="3">
         <f t="shared" si="0"/>
@@ -19335,22 +19209,16 @@
       </c>
       <c r="P48" s="2">
         <f>SQRT($P$26^2-$P$40^2)</f>
-        <v>5820.8272328767835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B49" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C49" s="13">
-        <v>173</v>
-      </c>
-      <c r="D49" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="75">
-        <v>-0.1</v>
-      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
       <c r="G49" s="3" t="s">
         <v>76</v>
       </c>
@@ -19360,13 +19228,13 @@
       <c r="I49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J49" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K49" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" s="27" t="e">
         <f>$C$118+$J$49</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
       <c r="M49" s="3">
         <f t="shared" si="0"/>
@@ -19380,7 +19248,7 @@
       </c>
       <c r="P49" s="2">
         <f>SQRT($P$27^2-$P$42^2)</f>
-        <v>6001.4304672407061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
@@ -19390,15 +19258,9 @@
       <c r="B50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="13">
-        <v>24</v>
-      </c>
-      <c r="D50" s="75">
-        <v>0.3</v>
-      </c>
-      <c r="E50" s="75">
-        <v>0</v>
-      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
       <c r="G50" s="3" t="s">
         <v>466</v>
       </c>
@@ -19410,11 +19272,11 @@
       </c>
       <c r="J50" s="27">
         <f>$J$5</f>
-        <v>499.75</v>
+        <v>0</v>
       </c>
       <c r="K50" s="27">
         <f>$C$118+$J$50</f>
-        <v>-650.22399999999993</v>
+        <v>-1149.9739999999999</v>
       </c>
       <c r="M50" s="3">
         <f t="shared" si="0"/>
@@ -19428,7 +19290,7 @@
       </c>
       <c r="P50" s="2">
         <f>SQRT($P$27^2-$P$43^2)</f>
-        <v>6000.93203557789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
@@ -19438,15 +19300,9 @@
       <c r="B51" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="13">
-        <v>8</v>
-      </c>
-      <c r="D51" s="75">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="75">
-        <v>0</v>
-      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
       <c r="G51" s="3" t="s">
         <v>469</v>
       </c>
@@ -19458,7 +19314,7 @@
       </c>
       <c r="J51" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="M51" s="3">
         <f t="shared" si="0"/>
@@ -19470,9 +19326,9 @@
       <c r="O51" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="2" t="e">
         <f>($P$49-$P$50)/$J$196</f>
-        <v>6.1916976747338391E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
@@ -19496,7 +19352,7 @@
       </c>
       <c r="J52" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K52" s="5"/>
       <c r="M52" s="3">
@@ -19509,18 +19365,16 @@
       <c r="O52" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="2" t="e">
         <f>SIN(ATAN($P$51))</f>
-        <v>6.1798630987830311E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B53" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="C53" s="29">
-        <v>3</v>
-      </c>
+      <c r="C53" s="29"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="M53" s="3">
@@ -19533,18 +19387,16 @@
       <c r="O53" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="2" t="e">
         <f>COS(ATAN($P$51))</f>
-        <v>0.99808863795157488</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B54" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="C54" s="29">
-        <v>3</v>
-      </c>
+      <c r="C54" s="29"/>
       <c r="H54" s="4" t="s">
         <v>434</v>
       </c>
@@ -19557,18 +19409,16 @@
       <c r="N54" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="2" t="e">
         <f>2*$P$53/(1+$P$53^2)</f>
-        <v>0.99999816985282908</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B55" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="C55" s="86">
-        <v>3</v>
-      </c>
+      <c r="C55" s="86"/>
       <c r="G55" s="3" t="s">
         <v>484</v>
       </c>
@@ -19578,9 +19428,9 @@
       <c r="I55" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J55" s="57">
+      <c r="J55" s="57" t="str">
         <f>IF(OR($C$77&lt;&gt;0, $C$81&lt;&gt;0), $C$151, "")</f>
-        <v>130002</v>
+        <v/>
       </c>
       <c r="M55" s="3">
         <f>ROW(M55)</f>
@@ -19594,16 +19444,14 @@
       </c>
       <c r="P55" s="2">
         <f>$P$47-$P$50</f>
-        <v>0.25057079229100054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B56" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="C56" s="86">
-        <v>3</v>
-      </c>
+      <c r="C56" s="86"/>
       <c r="G56" s="3" t="s">
         <v>78</v>
       </c>
@@ -19613,9 +19461,9 @@
       <c r="I56" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="27">
+      <c r="J56" s="27" t="e">
         <f ca="1">$P$116</f>
-        <v>153.65</v>
+        <v>#REF!</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="0"/>
@@ -19624,9 +19472,9 @@
       <c r="N56" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P56" s="2" t="e">
         <f>$J$196*$P$52/2</f>
-        <v>0.24873948972601703</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
@@ -19643,13 +19491,13 @@
       <c r="I57" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J57" s="27">
+      <c r="J57" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K57" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K57" s="27" t="e">
         <f>$C$118+$J$57</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
       <c r="M57" s="3">
         <f t="shared" si="0"/>
@@ -19661,9 +19509,9 @@
       <c r="O57" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P57" s="2" t="e">
         <f>$P$54*($J$106-$P$56)+$P$55</f>
-        <v>1.8317577948569197E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
@@ -19682,7 +19530,7 @@
       </c>
       <c r="J58" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K58" s="5"/>
       <c r="M58" s="3">
@@ -19697,7 +19545,7 @@
       </c>
       <c r="P58" s="2">
         <f>$J$5-$C$78</f>
-        <v>499.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
@@ -19717,16 +19565,14 @@
       </c>
       <c r="P59" s="2">
         <f>SQRT($C$7^2-$P$58^2)</f>
-        <v>5901.5954277741712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B60" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="71">
-        <v>1</v>
-      </c>
+      <c r="C60" s="71"/>
       <c r="H60" s="70" t="s">
         <v>558</v>
       </c>
@@ -19746,7 +19592,7 @@
       </c>
       <c r="P60" s="2">
         <f>P59-P34</f>
-        <v>4.2319216645410052E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
@@ -19756,9 +19602,7 @@
       <c r="B61" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C61" s="13">
-        <v>130</v>
-      </c>
+      <c r="C61" s="13"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="M61" s="3">
@@ -19773,7 +19617,7 @@
       </c>
       <c r="P61" s="2">
         <f>$J$4-$C$92</f>
-        <v>399.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
@@ -19783,9 +19627,7 @@
       <c r="B62" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C62" s="13">
-        <v>20</v>
-      </c>
+      <c r="C62" s="13"/>
       <c r="H62" s="4" t="s">
         <v>436</v>
       </c>
@@ -19803,7 +19645,7 @@
       </c>
       <c r="P62" s="2">
         <f>SQRT($C$7^2-$P$61^2)</f>
-        <v>5909.2028729029944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
@@ -19813,9 +19655,7 @@
       <c r="B63" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C63" s="13">
-        <v>17</v>
-      </c>
+      <c r="C63" s="13"/>
       <c r="G63" s="3" t="s">
         <v>484</v>
       </c>
@@ -19838,7 +19678,7 @@
       </c>
       <c r="P63" s="2">
         <f>P62-P31</f>
-        <v>3.3803302345404518E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
@@ -19848,9 +19688,7 @@
       <c r="B64" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C64" s="13">
-        <v>102</v>
-      </c>
+      <c r="C64" s="13"/>
       <c r="G64" s="3" t="s">
         <v>79</v>
       </c>
@@ -19862,7 +19700,7 @@
       </c>
       <c r="J64" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M64" s="3">
         <f t="shared" si="0"/>
@@ -19873,11 +19711,11 @@
       </c>
       <c r="O64" s="45" t="str">
         <f>IF($C$66&gt;=3, "振分中心-ディンプル1列目間距離", "-")</f>
-        <v>振分中心-ディンプル1列目間距離</v>
+        <v>-</v>
       </c>
       <c r="P64" s="36">
         <f>$J$4-$C$61</f>
-        <v>269.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
@@ -19887,9 +19725,7 @@
       <c r="B65" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="C65" s="13">
-        <v>85</v>
-      </c>
+      <c r="C65" s="13"/>
       <c r="G65" s="3" t="s">
         <v>79</v>
       </c>
@@ -19912,11 +19748,11 @@
       </c>
       <c r="O65" s="45" t="str">
         <f>IF($C$66&gt;=4, "振分中心-ディンプル2列目間距離", "-")</f>
-        <v>振分中心-ディンプル2列目間距離</v>
-      </c>
-      <c r="P65" s="36">
+        <v>-</v>
+      </c>
+      <c r="P65" s="36" t="str">
         <f>IF($C$66&gt;=4,$P$64-1*$C$62, "-")</f>
-        <v>249.75</v>
+        <v>-</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.4">
@@ -19926,9 +19762,7 @@
       <c r="B66" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C66" s="51">
-        <v>6</v>
-      </c>
+      <c r="C66" s="51"/>
       <c r="G66" s="3" t="s">
         <v>471</v>
       </c>
@@ -19938,9 +19772,9 @@
       <c r="I66" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J66" s="27">
+      <c r="J66" s="27" t="e">
         <f ca="1">$P$112</f>
-        <v>156.81401534334941</v>
+        <v>#REF!</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3">
@@ -19952,20 +19786,18 @@
       </c>
       <c r="O66" s="45" t="str">
         <f>IF($C$66&gt;=5, "振分中心-ディンプル3列目間距離", "-")</f>
-        <v>振分中心-ディンプル3列目間距離</v>
-      </c>
-      <c r="P66" s="36">
+        <v>-</v>
+      </c>
+      <c r="P66" s="36" t="str">
         <f>IF($C$66&gt;=5,$P$64-2*$C$62, "-")</f>
-        <v>229.75</v>
+        <v>-</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B67" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C67" s="53">
-        <v>0.31</v>
-      </c>
+      <c r="C67" s="53"/>
       <c r="G67" s="3" t="s">
         <v>76</v>
       </c>
@@ -19975,13 +19807,13 @@
       <c r="I67" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J67" s="27">
+      <c r="J67" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K67" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" s="27" t="e">
         <f>$C$118+$J$67</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="0"/>
@@ -19992,20 +19824,18 @@
       </c>
       <c r="O67" s="45" t="str">
         <f>IF($C$66&gt;=6, "振分中心-ディンプル4列目間距離", "-")</f>
-        <v>振分中心-ディンプル4列目間距離</v>
-      </c>
-      <c r="P67" s="36">
+        <v>-</v>
+      </c>
+      <c r="P67" s="36" t="str">
         <f>IF($C$66&gt;=6,$P$64-3*$C$62, "-")</f>
-        <v>209.75</v>
+        <v>-</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B68" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C68" s="59">
-        <v>20</v>
-      </c>
+      <c r="C68" s="59"/>
       <c r="G68" s="3" t="s">
         <v>466</v>
       </c>
@@ -20017,7 +19847,7 @@
       </c>
       <c r="J68" s="27">
         <f>$J$4</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K68" s="44"/>
       <c r="M68" s="3">
@@ -20072,9 +19902,7 @@
       <c r="B70" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C70" s="52">
-        <v>1</v>
-      </c>
+      <c r="C70" s="52"/>
       <c r="G70" s="3" t="s">
         <v>468</v>
       </c>
@@ -20084,9 +19912,9 @@
       <c r="I70" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J70" s="27" cm="1">
+      <c r="J70" s="27" t="e" cm="1">
         <f t="array" ref="J70">_xlfn.IFS($C$91=1, $C$92, $C$95=1, $C$96)</f>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="0"/>
@@ -20100,16 +19928,14 @@
       </c>
       <c r="P70" s="36">
         <f>$P$64-($C$66-2)*$C$62</f>
-        <v>189.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B71" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C71" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="C71" s="13"/>
       <c r="G71" s="3" t="s">
         <v>469</v>
       </c>
@@ -20121,7 +19947,7 @@
       </c>
       <c r="J71" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="M71" s="3">
         <f t="shared" si="0"/>
@@ -20135,16 +19961,14 @@
       </c>
       <c r="P71" s="36">
         <f>$P$64-($C$66-1)*$C$62</f>
-        <v>169.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B72" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C72" s="52">
-        <v>45</v>
-      </c>
+      <c r="C72" s="52"/>
       <c r="G72" s="3" t="s">
         <v>470</v>
       </c>
@@ -20156,7 +19980,7 @@
       </c>
       <c r="J72" s="27">
         <f>$J$195</f>
-        <v>24.15</v>
+        <v>0</v>
       </c>
       <c r="K72" s="60"/>
       <c r="M72" s="3">
@@ -20168,11 +19992,11 @@
       </c>
       <c r="O72" s="45" t="str">
         <f>IF($C$66&gt;=3,"λj ≦ q &lt; λj+1 の λj", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の λj</v>
-      </c>
-      <c r="P72" s="36">
+        <v>-</v>
+      </c>
+      <c r="P72" s="36" t="str">
         <f ca="1">IF($C$66&gt;=3,LOOKUP($C$61,INDIRECT($P$2&amp;"!$A:$A")),"-")</f>
-        <v>125</v>
+        <v>-</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
@@ -20187,7 +20011,7 @@
       </c>
       <c r="J73" s="27">
         <f>$J$196</f>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="K73" s="60"/>
       <c r="M73" s="3">
@@ -20199,20 +20023,18 @@
       </c>
       <c r="O73" s="45" t="str">
         <f>IF($C$66&gt;=4,"λj ≦ q+pz &lt; λj+1 の λj", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の λj</v>
-      </c>
-      <c r="P73" s="36">
+        <v>-</v>
+      </c>
+      <c r="P73" s="36" t="str">
         <f ca="1">IF($C$66&gt;=4,LOOKUP($C$61+$C$62, INDIRECT($P$2&amp;"!$A:$A")),"-")</f>
-        <v>150</v>
+        <v>-</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C74" s="52">
-        <v>0</v>
-      </c>
+      <c r="C74" s="52"/>
       <c r="G74" s="3" t="s">
         <v>470</v>
       </c>
@@ -20224,7 +20046,7 @@
       </c>
       <c r="J74" s="42">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K74" s="5"/>
       <c r="M74" s="3">
@@ -20236,11 +20058,11 @@
       </c>
       <c r="O74" s="45" t="str">
         <f>IF($C$66&gt;=5,"λj ≦ q+2pz &lt; λj+1 の λj", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の λj</v>
-      </c>
-      <c r="P74" s="36">
+        <v>-</v>
+      </c>
+      <c r="P74" s="36" t="str">
         <f ca="1">IF($C$66&gt;=5,LOOKUP($C$61+2*$C$62, INDIRECT($P$2&amp;"!$A:$A")),"-")</f>
-        <v>150</v>
+        <v>-</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.4">
@@ -20269,11 +20091,11 @@
       </c>
       <c r="O75" s="45" t="str">
         <f>IF($C$66&gt;=6,"λj ≦ q+3pz &lt; λj+1 の λj", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の λj</v>
-      </c>
-      <c r="P75" s="36">
+        <v>-</v>
+      </c>
+      <c r="P75" s="36" t="str">
         <f ca="1">IF($C$66&gt;=6,LOOKUP($C$61+3*$C$62, INDIRECT($P$2&amp;"!$A:$A")),"-")</f>
-        <v>175</v>
+        <v>-</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
@@ -20308,9 +20130,7 @@
       <c r="B77" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C77" s="52">
-        <v>1</v>
-      </c>
+      <c r="C77" s="52"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="M77" s="3">
@@ -20333,9 +20153,7 @@
       <c r="B78" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C78" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="C78" s="13"/>
       <c r="H78" s="4" t="s">
         <v>442</v>
       </c>
@@ -20351,18 +20169,16 @@
       <c r="O78" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="P78" s="2">
+      <c r="P78" s="2" t="e">
         <f ca="1">LOOKUP($C$61+($C$66-2)*$C$62, INDIRECT($P$2&amp;"!$A:$A"))</f>
-        <v>200</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B79" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C79" s="52">
-        <v>45</v>
-      </c>
+      <c r="C79" s="52"/>
       <c r="G79" s="3" t="s">
         <v>484</v>
       </c>
@@ -20386,9 +20202,9 @@
       <c r="O79" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="2" t="e">
         <f ca="1">LOOKUP($C$61+($C$66-1)*$C$62, INDIRECT($P$2&amp;"!$A:$A"))</f>
-        <v>225</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.4">
@@ -20403,7 +20219,7 @@
       </c>
       <c r="J80" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="M80" s="3">
         <f t="shared" si="0"/>
@@ -20414,20 +20230,18 @@
       </c>
       <c r="O80" s="45" t="str">
         <f>IF($C$66&gt;=3,"λj ≦ q &lt; λj+1 の λj+1", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の λj+1</v>
-      </c>
-      <c r="P80" s="2" cm="1">
+        <v>-</v>
+      </c>
+      <c r="P80" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="P80" ca="1">IF($C$66&gt;=3, INDEX(INDIRECT($P$2&amp;"!$A:$A"), MATCH($P72, INDIRECT($P$2&amp;"!$A:$A"), 0) +1),"-")</f>
-        <v>150</v>
+        <v>-</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B81" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C81" s="52">
-        <v>0</v>
-      </c>
+      <c r="C81" s="52"/>
       <c r="G81" s="3" t="s">
         <v>76</v>
       </c>
@@ -20437,13 +20251,13 @@
       <c r="I81" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J81" s="27">
+      <c r="J81" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K81" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K81" s="27" t="e">
         <f>$C$118+$J$81</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M81" s="3">
         <f t="shared" si="0"/>
@@ -20454,11 +20268,11 @@
       </c>
       <c r="O81" s="45" t="str">
         <f>IF($C$66&gt;=4,"λj ≦ q+pz &lt; λj+1 の λj+1", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の λj+1</v>
-      </c>
-      <c r="P81" s="36" cm="1">
+        <v>-</v>
+      </c>
+      <c r="P81" s="36" t="str" cm="1">
         <f t="array" aca="1" ref="P81" ca="1">IF($C$66&gt;=4, INDEX(INDIRECT($P$2&amp;"!$A:$A"), MATCH($P73, INDIRECT($P$2&amp;"!$A:$A"), 0) +1),"-")</f>
-        <v>175</v>
+        <v>-</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.4">
@@ -20477,11 +20291,11 @@
       </c>
       <c r="O82" s="45" t="str">
         <f>IF($C$66&gt;=5,"λj ≦ q+2pz &lt; λj+1 の λj+1", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の λj+1</v>
-      </c>
-      <c r="P82" s="36" cm="1">
+        <v>-</v>
+      </c>
+      <c r="P82" s="36" t="str" cm="1">
         <f t="array" aca="1" ref="P82" ca="1">IF($C$66&gt;=5, INDEX(INDIRECT($P$2&amp;"!$A:$A"), MATCH($P74, INDIRECT($P$2&amp;"!$A:$A"), 0) +1),"-")</f>
-        <v>175</v>
+        <v>-</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.4">
@@ -20499,20 +20313,18 @@
       </c>
       <c r="O83" s="45" t="str">
         <f>IF($C$66&gt;=6,"λj ≦ q+3pz &lt; λj+1 の λj+1", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の λj+1</v>
-      </c>
-      <c r="P83" s="36" cm="1">
+        <v>-</v>
+      </c>
+      <c r="P83" s="36" t="str" cm="1">
         <f t="array" aca="1" ref="P83" ca="1">IF($C$66&gt;=6, INDEX(INDIRECT($P$2&amp;"!$A:$A"), MATCH($P75, INDIRECT($P$2&amp;"!$A:$A"), 0) +1),"-")</f>
-        <v>200</v>
+        <v>-</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B84" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="52">
-        <v>1</v>
-      </c>
+      <c r="C84" s="52"/>
       <c r="G84" s="3" t="s">
         <v>484</v>
       </c>
@@ -20546,9 +20358,7 @@
       <c r="B85" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="13">
-        <v>5</v>
-      </c>
+      <c r="C85" s="13"/>
       <c r="G85" s="3" t="s">
         <v>79</v>
       </c>
@@ -20558,9 +20368,9 @@
       <c r="I85" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J85" s="27">
+      <c r="J85" s="27" t="e">
         <f ca="1">$P$112</f>
-        <v>156.81401534334941</v>
+        <v>#REF!</v>
       </c>
       <c r="M85" s="3">
         <f t="shared" si="0"/>
@@ -20582,9 +20392,7 @@
       <c r="B86" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C86" s="52">
-        <v>30</v>
-      </c>
+      <c r="C86" s="52"/>
       <c r="G86" s="3" t="s">
         <v>76</v>
       </c>
@@ -20594,13 +20402,13 @@
       <c r="I86" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J86" s="27">
+      <c r="J86" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K86" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K86" s="27" t="e">
         <f>$C$118+$J$86</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M86" s="3">
         <f t="shared" si="0"/>
@@ -20612,9 +20420,9 @@
       <c r="O86" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="P86" s="36" cm="1">
+      <c r="P86" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="P86" ca="1">INDEX(INDIRECT($P$2&amp;"!$A:$A"), MATCH($P78, INDIRECT($P$2&amp;"!$A:$A"), 0) +1)</f>
-        <v>225</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.4">
@@ -20629,7 +20437,7 @@
       </c>
       <c r="J87" s="27">
         <f>$J$4</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K87" s="44"/>
       <c r="M87" s="3">
@@ -20642,18 +20450,16 @@
       <c r="O87" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="P87" s="36" cm="1">
+      <c r="P87" s="36" t="e" cm="1">
         <f t="array" aca="1" ref="P87" ca="1">INDEX(INDIRECT($P$2&amp;"!$A:$A"), MATCH($P79, INDIRECT($P$2&amp;"!$A:$A"), 0) +1)</f>
-        <v>250</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="52">
-        <v>0</v>
-      </c>
+      <c r="C88" s="52"/>
       <c r="G88" s="3" t="s">
         <v>469</v>
       </c>
@@ -20665,7 +20471,7 @@
       </c>
       <c r="J88" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="M88" s="3">
         <f t="shared" si="0"/>
@@ -20676,11 +20482,11 @@
       </c>
       <c r="O88" s="45" t="str">
         <f>IF($C$66&gt;=3,"q-λj","")</f>
-        <v>q-λj</v>
-      </c>
-      <c r="P88" s="36">
-        <f ca="1">IF($C$66&gt;=3,$C$61-$P$72, "-")</f>
-        <v>5</v>
+        <v/>
+      </c>
+      <c r="P88" s="36" t="str">
+        <f>IF($C$66&gt;=3,$C$61-$P$72, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.4">
@@ -20699,7 +20505,7 @@
       </c>
       <c r="J89" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K89" s="5"/>
       <c r="M89" s="3">
@@ -20711,11 +20517,11 @@
       </c>
       <c r="O89" s="45" t="str">
         <f>IF($C$66&gt;=4,"q+pz-λj","")</f>
-        <v>q+pz-λj</v>
-      </c>
-      <c r="P89" s="36">
-        <f ca="1">IF($C$66&gt;=4,$C$61+$C$62-$P$73, "-")</f>
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="P89" s="36" t="str">
+        <f>IF($C$66&gt;=4,$C$61+$C$62-$P$73, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.4">
@@ -20730,20 +20536,18 @@
       </c>
       <c r="O90" s="45" t="str">
         <f>IF($C$66&gt;=5,"q+2pz-λj","")</f>
-        <v>q+2pz-λj</v>
-      </c>
-      <c r="P90" s="36">
-        <f ca="1">IF($C$66&gt;=5,$C$61+2*$C$62-$P$74, "-")</f>
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="P90" s="36" t="str">
+        <f>IF($C$66&gt;=5,$C$61+2*$C$62-$P$74, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C91" s="52">
-        <v>1</v>
-      </c>
+      <c r="C91" s="52"/>
       <c r="H91" s="4" t="s">
         <v>444</v>
       </c>
@@ -20758,20 +20562,18 @@
       </c>
       <c r="O91" s="45" t="str">
         <f>IF($C$66&gt;=6,"q+3pz-λj","")</f>
-        <v>q+3pz-λj</v>
-      </c>
-      <c r="P91" s="36">
-        <f ca="1">IF($C$66&gt;=6,$C$61+3*$C$62-$P$75, "-")</f>
-        <v>15</v>
+        <v/>
+      </c>
+      <c r="P91" s="36" t="str">
+        <f>IF($C$66&gt;=6,$C$61+3*$C$62-$P$75, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B92" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C92" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="C92" s="13"/>
       <c r="G92" s="3" t="s">
         <v>484</v>
       </c>
@@ -20805,9 +20607,7 @@
       <c r="B93" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="52">
-        <v>45</v>
-      </c>
+      <c r="C93" s="52"/>
       <c r="G93" s="3" t="s">
         <v>78</v>
       </c>
@@ -20817,9 +20617,9 @@
       <c r="I93" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J93" s="27">
+      <c r="J93" s="27" t="e">
         <f ca="1">$P$113</f>
-        <v>155.8000223569716</v>
+        <v>#REF!</v>
       </c>
       <c r="M93" s="3">
         <f t="shared" si="0"/>
@@ -20847,13 +20647,13 @@
       <c r="I94" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J94" s="27">
+      <c r="J94" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K94" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K94" s="27" t="e">
         <f>$C$118+$J$94</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M94" s="3">
         <f t="shared" si="0"/>
@@ -20865,18 +20665,16 @@
       <c r="O94" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="P94" s="36">
+      <c r="P94" s="36" t="e">
         <f ca="1">$C$61+($C$66-2)*$C$62-$P$78</f>
-        <v>10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C95" s="52">
-        <v>0</v>
-      </c>
+      <c r="C95" s="52"/>
       <c r="G95" s="3" t="s">
         <v>470</v>
       </c>
@@ -20888,7 +20686,7 @@
       </c>
       <c r="J95" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K95" s="5"/>
       <c r="M95" s="3">
@@ -20901,9 +20699,9 @@
       <c r="O95" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="P95" s="36">
+      <c r="P95" s="36" t="e">
         <f ca="1">$C$61+($C$66-1)*$C$62-$P$79</f>
-        <v>5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.4">
@@ -20922,11 +20720,11 @@
       </c>
       <c r="O96" s="45" t="str">
         <f>IF($C$66&gt;=3, "λj+1-q", "-")</f>
-        <v>λj+1-q</v>
-      </c>
-      <c r="P96" s="36">
-        <f ca="1">IF($C$66&gt;=3,$P$80-$C$61, "-")</f>
-        <v>20</v>
+        <v>-</v>
+      </c>
+      <c r="P96" s="36" t="str">
+        <f>IF($C$66&gt;=3,$P$80-$C$61, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.4">
@@ -20951,20 +20749,18 @@
       </c>
       <c r="O97" s="45" t="str">
         <f>IF($C$66&gt;=4, "λj+1-q-pz", "-")</f>
-        <v>λj+1-q-pz</v>
-      </c>
-      <c r="P97" s="36">
-        <f ca="1">IF($C$66&gt;=4,$P$81-$C$61-$C$62, "-")</f>
-        <v>25</v>
+        <v>-</v>
+      </c>
+      <c r="P97" s="36" t="str">
+        <f>IF($C$66&gt;=4,$P$81-$C$61-$C$62, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="C98" s="71">
-        <v>0</v>
-      </c>
+      <c r="C98" s="71"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="M98" s="3">
@@ -20976,11 +20772,11 @@
       </c>
       <c r="O98" s="45" t="str">
         <f>IF($C$66&gt;=5, "λj+1-q-2pz", "-")</f>
-        <v>λj+1-q-2pz</v>
-      </c>
-      <c r="P98" s="36">
-        <f ca="1">IF($C$66&gt;=5,$P$82-$C$61-2*$C$62, "-")</f>
-        <v>5</v>
+        <v>-</v>
+      </c>
+      <c r="P98" s="36" t="str">
+        <f>IF($C$66&gt;=5,$P$82-$C$61-2*$C$62, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.4">
@@ -21002,11 +20798,11 @@
       </c>
       <c r="O99" s="45" t="str">
         <f>IF($C$66&gt;=6, "λj+1-q-3pz", "-")</f>
-        <v>λj+1-q-3pz</v>
-      </c>
-      <c r="P99" s="36">
-        <f ca="1">IF($C$66&gt;=6,$P$83-$C$61-3*$C$62, "-")</f>
-        <v>10</v>
+        <v>-</v>
+      </c>
+      <c r="P99" s="36" t="str">
+        <f>IF($C$66&gt;=6,$P$83-$C$61-3*$C$62, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.4">
@@ -21059,7 +20855,7 @@
       </c>
       <c r="J101" s="27">
         <f>IF($C$46=4, "#0", $J$186)</f>
-        <v>174.36</v>
+        <v>0</v>
       </c>
       <c r="K101" s="43"/>
       <c r="M101" s="3">
@@ -21094,7 +20890,7 @@
       </c>
       <c r="J102" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K102" s="60"/>
       <c r="M102" s="3">
@@ -21107,9 +20903,9 @@
       <c r="O102" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="P102" s="2">
+      <c r="P102" s="2" t="e">
         <f ca="1">$P$86-$C$61-($C$66-2)*$C$62</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.4">
@@ -21126,13 +20922,13 @@
       <c r="I103" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J103" s="27">
+      <c r="J103" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K103" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K103" s="27" t="e">
         <f>$C$118+$J$103</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M103" s="3">
         <f t="shared" si="2"/>
@@ -21144,9 +20940,9 @@
       <c r="O103" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="P103" s="2">
+      <c r="P103" s="2" t="e">
         <f ca="1">$P$87-$C$61-($C$66-1)*$C$62</f>
-        <v>20</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.4">
@@ -21161,7 +20957,7 @@
       </c>
       <c r="J104" s="27">
         <f>$J$195</f>
-        <v>24.15</v>
+        <v>0</v>
       </c>
       <c r="K104" s="60"/>
       <c r="M104" s="3">
@@ -21173,20 +20969,18 @@
       </c>
       <c r="O104" s="45" t="str">
         <f>IF($C$66&gt;=3,"1列目湾曲中心X","-")</f>
-        <v>1列目湾曲中心X</v>
-      </c>
-      <c r="P104" s="38">
+        <v>-</v>
+      </c>
+      <c r="P104" s="38" t="str">
         <f>IF($C$66&gt;=3,SQRT($C$7^2-$P$64^2),"-")</f>
-        <v>5916.5288888946534</v>
+        <v>-</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C105" s="71">
-        <v>0</v>
-      </c>
+      <c r="C105" s="71"/>
       <c r="G105" s="3" t="s">
         <v>494</v>
       </c>
@@ -21198,7 +20992,7 @@
       </c>
       <c r="J105" s="27">
         <f>$J$196</f>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="K105" s="60"/>
       <c r="M105" s="3">
@@ -21210,11 +21004,11 @@
       </c>
       <c r="O105" s="45" t="str">
         <f>IF($C$66&gt;=4,"2列目湾曲中心X","-")</f>
-        <v>2列目湾曲中心X</v>
-      </c>
-      <c r="P105" s="38">
+        <v>-</v>
+      </c>
+      <c r="P105" s="38" t="str">
         <f>IF($C$66&gt;=4,SQRT($C$7^2-$P$65^2),"-")</f>
-        <v>5917.4068723660539</v>
+        <v>-</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.4">
@@ -21245,11 +21039,11 @@
       </c>
       <c r="O106" s="45" t="str">
         <f>IF($C$66&gt;=5,"3列目湾曲中心X","-")</f>
-        <v>3列目湾曲中心X</v>
-      </c>
-      <c r="P106" s="38">
+        <v>-</v>
+      </c>
+      <c r="P106" s="38" t="str">
         <f>IF($C$66&gt;=5,SQRT($C$7^2-$P$66^2),"-")</f>
-        <v>5918.2171380513746</v>
+        <v>-</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.4">
@@ -21278,11 +21072,11 @@
       </c>
       <c r="O107" s="45" t="str">
         <f>IF($C$66&gt;=6,"4列目湾曲中心X","-")</f>
-        <v>4列目湾曲中心X</v>
-      </c>
-      <c r="P107" s="38">
+        <v>-</v>
+      </c>
+      <c r="P107" s="38" t="str">
         <f>IF($C$66&gt;=6,SQRT($C$7^2-$P$67^2),"-")</f>
-        <v>5918.9597137609408</v>
+        <v>-</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.4">
@@ -21360,7 +21154,7 @@
       </c>
       <c r="P110" s="39">
         <f>SQRT($C$7^2-$P$70^2)</f>
-        <v>5919.6346249684193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.4">
@@ -21379,7 +21173,7 @@
       </c>
       <c r="J111" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="M111" s="3">
         <f t="shared" si="2"/>
@@ -21393,7 +21187,7 @@
       </c>
       <c r="P111" s="39">
         <f>SQRT($C$7^2-$P$71^2)</f>
-        <v>5920.2418948151944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.4">
@@ -21415,13 +21209,13 @@
       <c r="I112" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J112" s="27">
+      <c r="J112" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K112" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K112" s="27" t="e">
         <f>$C$118+$J$103</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M112" s="3">
         <f t="shared" si="2"/>
@@ -21433,9 +21227,9 @@
       <c r="O112" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="P112" s="36">
+      <c r="P112" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH(0, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>156.81401534334941</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.4">
@@ -21459,7 +21253,7 @@
       </c>
       <c r="J113" s="27">
         <f>$J$195</f>
-        <v>24.15</v>
+        <v>0</v>
       </c>
       <c r="K113" s="60"/>
       <c r="M113" s="3">
@@ -21472,9 +21266,9 @@
       <c r="O113" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="P113" s="36">
+      <c r="P113" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH(0, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>155.8000223569716</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.4">
@@ -21498,7 +21292,7 @@
       </c>
       <c r="J114" s="27">
         <f>$J$196</f>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="K114" s="60"/>
       <c r="M114" s="3">
@@ -21508,9 +21302,9 @@
       <c r="O114" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="P114" s="36">
+      <c r="P114" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!D:D"), MATCH(0, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>4.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.4">
@@ -21545,9 +21339,9 @@
       <c r="O115" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="P115" s="2">
+      <c r="P115" s="2" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH(ROUND($J$4+$J$5, 0), INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>154.65</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.4">
@@ -21569,9 +21363,9 @@
       <c r="O116" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="P116" s="2">
+      <c r="P116" s="2" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH(ROUND($J$4+$J$5, 0), INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>153.65</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.4">
@@ -21592,9 +21386,9 @@
       <c r="O117" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="P117" s="2">
+      <c r="P117" s="2" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!D:D"), MATCH(ROUND($J$4+$J$5, 0), INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>3.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.4">
@@ -21626,11 +21420,11 @@
       </c>
       <c r="O118" s="45" t="str">
         <f>IF($C$66&gt;=3,"λj ≦ q &lt; λj+1 の wAj", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の wAj</v>
-      </c>
-      <c r="P118" s="36">
+        <v>-</v>
+      </c>
+      <c r="P118" s="36" t="str">
         <f ca="1">IF($C$66&gt;=3, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$72, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>156.20284952810516</v>
+        <v>-</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.4">
@@ -21651,7 +21445,7 @@
       </c>
       <c r="J119" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K119" s="5"/>
       <c r="M119" s="3">
@@ -21663,11 +21457,11 @@
       </c>
       <c r="O119" s="45" t="str">
         <f>IF($C$66&gt;=4,"λj ≦ q+pz &lt; λj+1 の wAj", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の wAj</v>
-      </c>
-      <c r="P119" s="36">
+        <v>-</v>
+      </c>
+      <c r="P119" s="36" t="str">
         <f ca="1">IF($C$66&gt;=4, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$73, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>156.08090249703767</v>
+        <v>-</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.4">
@@ -21686,13 +21480,13 @@
       <c r="I120" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J120" s="27">
+      <c r="J120" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K120" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K120" s="27" t="e">
         <f>$C$118+$J$120</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M120" s="3">
         <f t="shared" si="2"/>
@@ -21703,11 +21497,11 @@
       </c>
       <c r="O120" s="45" t="str">
         <f>IF($C$66&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wAj", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の wAj</v>
-      </c>
-      <c r="P120" s="36">
+        <v>-</v>
+      </c>
+      <c r="P120" s="36" t="str">
         <f ca="1">IF($C$66&gt;=5, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$74, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>156.08090249703767</v>
+        <v>-</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.4">
@@ -21728,7 +21522,7 @@
       </c>
       <c r="J121" s="27">
         <f>$J$4</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K121" s="44"/>
       <c r="M121" s="3">
@@ -21740,11 +21534,11 @@
       </c>
       <c r="O121" s="45" t="str">
         <f>IF($C$66&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wAj", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の wAj</v>
-      </c>
-      <c r="P121" s="36">
+        <v>-</v>
+      </c>
+      <c r="P121" s="36" t="str">
         <f ca="1">IF($C$66&gt;=6, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$75, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.95895546597018</v>
+        <v>-</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.4">
@@ -21765,7 +21559,7 @@
       </c>
       <c r="J122" s="27">
         <f>$C$64</f>
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="M122" s="3">
         <f t="shared" si="2"/>
@@ -21795,7 +21589,7 @@
       </c>
       <c r="J123" s="27">
         <f>$C$65</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M123" s="3">
         <f t="shared" si="2"/>
@@ -21828,7 +21622,7 @@
       </c>
       <c r="J124" s="27">
         <f>$C$61</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="M124" s="3">
         <f t="shared" si="2"/>
@@ -21840,14 +21634,14 @@
       <c r="O124" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="P124" s="36">
+      <c r="P124" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$78, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>155.84853718389309</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B125" s="12" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C125" s="58">
         <v>1</v>
@@ -21863,7 +21657,7 @@
       </c>
       <c r="J125" s="27">
         <f>$C$63</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M125" s="3">
         <f t="shared" si="2"/>
@@ -21875,9 +21669,9 @@
       <c r="O125" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="P125" s="36">
+      <c r="P125" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$79, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>155.74862076734124</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.4">
@@ -21898,7 +21692,7 @@
       </c>
       <c r="J126" s="27">
         <f>$C$62</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M126" s="3">
         <f t="shared" si="2"/>
@@ -21909,11 +21703,11 @@
       </c>
       <c r="O126" s="45" t="str">
         <f>IF($C$66&gt;=3,"λj ≦ q &lt; λj+1 の wAj+1", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の wAj+1</v>
-      </c>
-      <c r="P126" s="36">
+        <v>-</v>
+      </c>
+      <c r="P126" s="36" t="str">
         <f ca="1">IF($C$66&gt;=3, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$80, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>156.08090249703767</v>
+        <v>-</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.4">
@@ -21934,7 +21728,7 @@
       </c>
       <c r="J127" s="57">
         <f>$C$66</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M127" s="3">
         <f t="shared" si="2"/>
@@ -21945,11 +21739,11 @@
       </c>
       <c r="O127" s="45" t="str">
         <f>IF($C$66&gt;=4,"λj ≦ q+pz &lt; λj+1 の wAj+1", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の wAj+1</v>
-      </c>
-      <c r="P127" s="36">
+        <v>-</v>
+      </c>
+      <c r="P127" s="36" t="str">
         <f ca="1">IF($C$66&gt;=4, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$81, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.95895546597018</v>
+        <v>-</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.4">
@@ -21970,7 +21764,7 @@
       </c>
       <c r="J128" s="27">
         <f>$C$67</f>
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M128" s="3">
         <f t="shared" si="2"/>
@@ -21981,16 +21775,16 @@
       </c>
       <c r="O128" s="45" t="str">
         <f>IF($C$66&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wAj+1", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の wAj+1</v>
-      </c>
-      <c r="P128" s="36">
+        <v>-</v>
+      </c>
+      <c r="P128" s="36" t="str">
         <f ca="1">IF($C$66&gt;=5, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$82, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.95895546597018</v>
+        <v>-</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B129" s="12" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C129" s="58">
         <v>11</v>
@@ -22006,7 +21800,7 @@
       </c>
       <c r="J129" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="M129" s="3">
         <f t="shared" si="2"/>
@@ -22017,16 +21811,16 @@
       </c>
       <c r="O129" s="45" t="str">
         <f>IF($C$66&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wAj+1", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の wAj+1</v>
-      </c>
-      <c r="P129" s="36">
+        <v>-</v>
+      </c>
+      <c r="P129" s="36" t="str">
         <f ca="1">IF($C$66&gt;=6, INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$83, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.84853718389309</v>
+        <v>-</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B130" s="12" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C130" s="58">
         <v>12</v>
@@ -22040,9 +21834,9 @@
       <c r="I130" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J130" s="27">
+      <c r="J130" s="27" t="e">
         <f>$J$13</f>
-        <v>-0.48299999999999998</v>
+        <v>#NUM!</v>
       </c>
       <c r="K130" s="43"/>
       <c r="M130" s="3">
@@ -22063,7 +21857,7 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B131" s="12" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C131" s="58">
         <v>13</v>
@@ -22077,9 +21871,9 @@
       <c r="I131" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="J131" s="27">
+      <c r="J131" s="27" t="e">
         <f ca="1">-ROUND(DEGREES($P$139),3)</f>
-        <v>-3.0579999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K131" s="5"/>
       <c r="M131" s="3">
@@ -22117,9 +21911,9 @@
       <c r="O132" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="P132" s="36">
+      <c r="P132" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$86, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>155.74862076734124</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.4">
@@ -22141,9 +21935,9 @@
       <c r="O133" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="P133" s="36">
+      <c r="P133" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!B:B"), MATCH($P$87, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>155.65822980411488</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.4">
@@ -22162,9 +21956,9 @@
       <c r="I134" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J134" s="57" cm="1">
+      <c r="J134" s="57" t="e" cm="1">
         <f t="array" ref="J134">_xlfn.IFS($C$68&gt;=20, $C$134, $C$68&gt;=6.6, $C$135, $C$68&gt;=15, $C$136)</f>
-        <v>31</v>
+        <v>#N/A</v>
       </c>
       <c r="K134" s="43"/>
       <c r="M134" s="3">
@@ -22177,9 +21971,9 @@
       <c r="O134" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="P134" s="2">
+      <c r="P134" s="2" t="e">
         <f ca="1">$C$7+$J$327/2</f>
-        <v>6001.1520076716752</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.4">
@@ -22201,9 +21995,9 @@
       <c r="O135" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="P135" s="2">
-        <f ca="1">$C$7+$J$328/2</f>
-        <v>6000.8342300609456</v>
+      <c r="P135" s="2" t="e">
+        <f>$C$7+$J$328/2</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.4">
@@ -22227,9 +22021,9 @@
       <c r="O136" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="P136" s="2">
-        <f ca="1">SQRT($P$135^2-$P$64^2)</f>
-        <v>5994.7682519152595</v>
+      <c r="P136" s="2" t="e">
+        <f>SQRT($P$135^2-$P$64^2)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.4">
@@ -22263,9 +22057,9 @@
       <c r="O137" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="P137" s="2">
+      <c r="P137" s="2" t="e">
         <f ca="1">SQRT($P$134^2-$J$4^2)</f>
-        <v>5987.8230899619757</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -22284,13 +22078,13 @@
       <c r="I138" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J138" s="66">
+      <c r="J138" s="66" t="e">
         <f>$J$13</f>
-        <v>-0.48299999999999998</v>
-      </c>
-      <c r="K138" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K138" s="27" t="e">
         <f>-$C$119+$J$138</f>
-        <v>-0.55599999999999994</v>
+        <v>#NUM!</v>
       </c>
       <c r="M138" s="3">
         <f t="shared" si="2"/>
@@ -22302,9 +22096,9 @@
       <c r="O138" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="P138" s="2">
+      <c r="P138" s="2" t="e">
         <f ca="1">IF($P$136&gt;$P$137, ($P$136-$P$137)/$C$61, 0)</f>
-        <v>5.3424322717567592E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="139" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -22337,9 +22131,9 @@
       <c r="O139" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="P139" s="2">
+      <c r="P139" s="2" t="e">
         <f ca="1">ATAN($P$138)</f>
-        <v>5.3373582424476908E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.4">
@@ -22352,13 +22146,13 @@
       <c r="I140" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J140" s="27">
+      <c r="J140" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K140" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K140" s="27" t="e">
         <f>$C$118+$J$140</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M140" s="3">
         <f t="shared" si="2"/>
@@ -22370,9 +22164,9 @@
       <c r="O140" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="P140" s="2">
+      <c r="P140" s="2" t="e">
         <f ca="1">-RADIANS($J$131)</f>
-        <v>5.3372168525986592E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.4">
@@ -22388,9 +22182,9 @@
       <c r="I141" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J141" s="27">
+      <c r="J141" s="27" t="e">
         <f ca="1">$P$114</f>
-        <v>4.5</v>
+        <v>#REF!</v>
       </c>
       <c r="M141" s="3">
         <f t="shared" si="2"/>
@@ -22402,9 +22196,9 @@
       <c r="O141" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="P141" s="2">
+      <c r="P141" s="2" t="e">
         <f ca="1">SIN($P$140)</f>
-        <v>5.3346832911673678E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.4">
@@ -22426,9 +22220,9 @@
       <c r="O142" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="P142" s="2">
+      <c r="P142" s="2" t="e">
         <f ca="1">COS($P$140)</f>
-        <v>0.9985760438836363</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.4">
@@ -22452,9 +22246,9 @@
       <c r="O143" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="P143" s="2">
-        <f ca="1">$C$7-$J$328/2</f>
-        <v>5844.5157699390547</v>
+      <c r="P143" s="2" t="e">
+        <f>$C$7-$J$328/2</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.4">
@@ -22488,9 +22282,9 @@
       <c r="O144" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="P144" s="2">
+      <c r="P144" s="2" t="e">
         <f ca="1">$C$7-$J$329/2</f>
-        <v>5844.7397287126523</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.4">
@@ -22517,9 +22311,9 @@
       <c r="O145" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="P145" s="2">
+      <c r="P145" s="2" t="e">
         <f ca="1">SQRT($P$144^2-$P$71^2)</f>
-        <v>5842.2741662722447</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.4">
@@ -22550,9 +22344,9 @@
       <c r="O146" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="P146" s="2">
-        <f ca="1">SQRT($P$143^2-$P$64^2)</f>
-        <v>5838.2873792377077</v>
+      <c r="P146" s="2" t="e">
+        <f>SQRT($P$143^2-$P$64^2)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.4">
@@ -22583,9 +22377,9 @@
       <c r="N147" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="P147" s="2">
+      <c r="P147" s="2" t="e">
         <f ca="1">($P145-$P146)/($P$64-$P$71)</f>
-        <v>3.9867870345369739E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.4">
@@ -22606,7 +22400,7 @@
       </c>
       <c r="J148" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K148" s="60"/>
       <c r="M148" s="3">
@@ -22619,9 +22413,9 @@
       <c r="O148" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="P148" s="2">
+      <c r="P148" s="2" t="e">
         <f ca="1">ATAN($P$147)</f>
-        <v>3.9846767843056664E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.4">
@@ -22642,7 +22436,7 @@
       </c>
       <c r="J149" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K149" s="60"/>
       <c r="M149" s="3">
@@ -22657,7 +22451,7 @@
       </c>
       <c r="P149" s="2">
         <f>IF(MOD($C$66, 2)=0, $C$64, $C$65)</f>
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.4">
@@ -22676,13 +22470,13 @@
       <c r="I150" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J150" s="27">
+      <c r="J150" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K150" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K150" s="27" t="e">
         <f>$C$118+$J$150</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M150" s="3">
         <f t="shared" si="2"/>
@@ -22696,7 +22490,7 @@
       </c>
       <c r="P150" s="2">
         <f>IF(MOD($C$66, 2)=0, $C$65, $C$64)</f>
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.4">
@@ -22730,9 +22524,9 @@
       <c r="O151" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="P151" s="2">
+      <c r="P151" s="2" t="e">
         <f ca="1">$J$327/2-$J$317-$P$149/2</f>
-        <v>17.011452303904377</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.4">
@@ -22753,7 +22547,7 @@
       </c>
       <c r="J152" s="27">
         <f>IF($C$35&lt;&gt;1, $J$195+$J$196, $P$25)</f>
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="K152" s="60"/>
       <c r="M152" s="3">
@@ -22766,9 +22560,9 @@
       <c r="O152" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="P152" s="2">
+      <c r="P152" s="2" t="e">
         <f ca="1">$J$327/2-$J$318-$P$150/2</f>
-        <v>24.904182457129252</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.4">
@@ -22789,7 +22583,7 @@
       </c>
       <c r="J153" s="27">
         <f>$J$195</f>
-        <v>24.15</v>
+        <v>0</v>
       </c>
       <c r="K153" s="60"/>
       <c r="M153" s="3">
@@ -22801,16 +22595,16 @@
       </c>
       <c r="O153" s="45" t="str">
         <f>IF($C$66&gt;=3,"λj ≦ q &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の wBj</v>
-      </c>
-      <c r="P153" s="36">
+        <v>-</v>
+      </c>
+      <c r="P153" s="36" t="str">
         <f ca="1">IF($C$66&gt;=3, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$72, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.19280847069746</v>
+        <v>-</v>
       </c>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B154" s="12" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C154" s="58">
         <v>160003</v>
@@ -22826,7 +22620,7 @@
       </c>
       <c r="J154" s="27">
         <f>$J$196</f>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="K154" s="60"/>
       <c r="M154" s="3">
@@ -22838,11 +22632,11 @@
       </c>
       <c r="O154" s="45" t="str">
         <f>IF($C$66&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の wBj</v>
-      </c>
-      <c r="P154" s="36">
+        <v>-</v>
+      </c>
+      <c r="P154" s="36" t="str">
         <f ca="1">IF($C$66&gt;=4, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$73, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.07164997523336</v>
+        <v>-</v>
       </c>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.4">
@@ -22864,11 +22658,11 @@
       </c>
       <c r="O155" s="45" t="str">
         <f>IF($C$66&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の wBj</v>
-      </c>
-      <c r="P155" s="36">
+        <v>-</v>
+      </c>
+      <c r="P155" s="36" t="str">
         <f ca="1">IF($C$66&gt;=5, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$74, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.07164997523336</v>
+        <v>-</v>
       </c>
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.4">
@@ -22891,11 +22685,11 @@
       </c>
       <c r="O156" s="45" t="str">
         <f>IF($C$66&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の wBj</v>
-      </c>
-      <c r="P156" s="36">
+        <v>-</v>
+      </c>
+      <c r="P156" s="36" t="str">
         <f ca="1">IF($C$66&gt;=6, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$75, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>154.95049147976925</v>
+        <v>-</v>
       </c>
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.4">
@@ -23001,9 +22795,9 @@
       <c r="O159" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="P159" s="36">
+      <c r="P159" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$78, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>154.8407871859371</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.4">
@@ -23036,14 +22830,14 @@
       <c r="O160" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="P160" s="36">
+      <c r="P160" s="36" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$79, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>154.74151685031995</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B161" s="12" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C161" s="58">
         <v>441000</v>
@@ -23070,11 +22864,11 @@
       </c>
       <c r="O161" s="45" t="str">
         <f>IF($C$66&gt;=3,"λj ≦ q &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q &lt; λj+1 の wBj+1</v>
-      </c>
-      <c r="P161" s="36">
+        <v>-</v>
+      </c>
+      <c r="P161" s="36" t="str">
         <f ca="1">IF($C$66&gt;=3, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$80, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>155.07164997523336</v>
+        <v>-</v>
       </c>
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.4">
@@ -23106,11 +22900,11 @@
       </c>
       <c r="O162" s="45" t="str">
         <f>IF($C$66&gt;=4,"λj ≦ q+pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q+pz &lt; λj+1 の wBj+1</v>
-      </c>
-      <c r="P162" s="36">
+        <v>-</v>
+      </c>
+      <c r="P162" s="36" t="str">
         <f ca="1">IF($C$66&gt;=4, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$81, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>154.95049147976925</v>
+        <v>-</v>
       </c>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.4">
@@ -23142,11 +22936,11 @@
       </c>
       <c r="O163" s="45" t="str">
         <f>IF($C$66&gt;=5,"λj ≦ q+2pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q+2pz &lt; λj+1 の wBj+1</v>
-      </c>
-      <c r="P163" s="36">
+        <v>-</v>
+      </c>
+      <c r="P163" s="36" t="str">
         <f ca="1">IF($C$66&gt;=5, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$82, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>154.95049147976925</v>
+        <v>-</v>
       </c>
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.4">
@@ -23167,7 +22961,7 @@
       </c>
       <c r="J164" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K164" s="60"/>
       <c r="M164" s="3">
@@ -23179,16 +22973,16 @@
       </c>
       <c r="O164" s="45" t="str">
         <f>IF($C$66&gt;=6,"λj ≦ q+3pz &lt; λj+1 の wBj+1", "-")</f>
-        <v>λj ≦ q+3pz &lt; λj+1 の wBj+1</v>
-      </c>
-      <c r="P164" s="36">
+        <v>-</v>
+      </c>
+      <c r="P164" s="36" t="str">
         <f ca="1">IF($C$66&gt;=6, INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$83, INDIRECT($P$2&amp;"!A:A"), 0)),"-")</f>
-        <v>154.8407871859371</v>
+        <v>-</v>
       </c>
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B165" s="12" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C165" s="58">
         <v>900003</v>
@@ -23204,7 +22998,7 @@
       </c>
       <c r="J165" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K165" s="60"/>
       <c r="M165" s="3">
@@ -23225,7 +23019,7 @@
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B166" s="12" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C166" s="58">
         <v>910001</v>
@@ -23239,13 +23033,13 @@
       <c r="I166" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J166" s="27">
+      <c r="J166" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K166" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K166" s="27" t="e">
         <f>$C$118+$J$150</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M166" s="3">
         <f t="shared" si="2"/>
@@ -23265,7 +23059,7 @@
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B167" s="12" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C167" s="58">
         <v>910002</v>
@@ -23283,9 +23077,9 @@
       <c r="O167" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="P167" s="2">
+      <c r="P167" s="2" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$86, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>154.74151685031995</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.4">
@@ -23303,9 +23097,9 @@
       <c r="O168" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="P168" s="2">
+      <c r="P168" s="2" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH($P$87, INDIRECT($P$2&amp;"!A:A"), 0))</f>
-        <v>154.65171037440834</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.4">
@@ -23335,11 +23129,11 @@
       </c>
       <c r="O169" s="46" t="str">
         <f>IF($C$66&gt;=4,"2列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>2列目AC内径（水平・めっき含・概算）</v>
-      </c>
-      <c r="P169" s="36">
-        <f ca="1">IF($C$66&gt;=4,($P$89*$P$127+$P$97*$P$119)/($P$81-$P$73)+$C$19*2,"-")</f>
-        <v>156.22090249703766</v>
+        <v>-</v>
+      </c>
+      <c r="P169" s="36" t="str">
+        <f>IF($C$66&gt;=4,($P$89*$P$127+$P$97*$P$119)/($P$81-$P$73)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.4">
@@ -23371,11 +23165,11 @@
       </c>
       <c r="O170" s="46" t="str">
         <f>IF($C$66&gt;=5,"3列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>3列目AC内径（水平・めっき含・概算）</v>
-      </c>
-      <c r="P170" s="36">
-        <f ca="1">IF($C$66&gt;=5,($P$90*$P$128+$P$98*$P$120)/($P$82-$P$74)+$C$19*2,"-")</f>
-        <v>156.12334487218365</v>
+        <v>-</v>
+      </c>
+      <c r="P170" s="36" t="str">
+        <f>IF($C$66&gt;=5,($P$90*$P$128+$P$98*$P$120)/($P$82-$P$74)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.4">
@@ -23408,11 +23202,11 @@
       </c>
       <c r="O171" s="46" t="str">
         <f>IF($C$66&gt;=6,"4列目AC内径（水平・めっき含・概算）","-")</f>
-        <v>4列目AC内径（水平・めっき含・概算）</v>
-      </c>
-      <c r="P171" s="36">
-        <f ca="1">IF($C$66&gt;=6,($P$91*$P$129+$P$99*$P$121)/($P$83-$P$75)+$C$19*2,"-")</f>
-        <v>156.03270449672391</v>
+        <v>-</v>
+      </c>
+      <c r="P171" s="36" t="str">
+        <f>IF($C$66&gt;=6,($P$91*$P$129+$P$99*$P$121)/($P$83-$P$75)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.4">
@@ -23468,13 +23262,13 @@
       <c r="I173" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J173" s="27">
+      <c r="J173" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K173" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K173" s="27" t="e">
         <f>$C$118+$J$150</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M173" s="3">
         <f t="shared" si="2"/>
@@ -23523,9 +23317,9 @@
       <c r="O174" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="P174" s="2">
+      <c r="P174" s="2" t="e">
         <f ca="1">($P$94*$P$132+$P$102*$P$124)/($P$86-$P$78)+$C$19*2</f>
-        <v>155.94857061727234</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.4">
@@ -23559,9 +23353,9 @@
       <c r="O175" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="P175" s="2">
+      <c r="P175" s="2" t="e">
         <f ca="1">INDEX(INDIRECT($P$2&amp;"!C:C"), MATCH(0, INDIRECT($P$2&amp;"!A:A"), 0))+$C$19*2</f>
-        <v>155.94002235697158</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.4">
@@ -23581,11 +23375,11 @@
       </c>
       <c r="O176" s="46" t="str">
         <f>IF($C$66&gt;=3,"1列目 BD内径（めっき含・概算）","-")</f>
-        <v>1列目 BD内径（めっき含・概算）</v>
-      </c>
-      <c r="P176" s="36">
-        <f ca="1">IF($C$66&gt;=3,($P$88*$P$161+$P$96*$P$153)/($P$80-$P$72)+$C$19*2,"-")</f>
-        <v>155.30857677160463</v>
+        <v>-</v>
+      </c>
+      <c r="P176" s="36" t="str">
+        <f>IF($C$66&gt;=3,($P$88*$P$161+$P$96*$P$153)/($P$80-$P$72)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.4">
@@ -23609,11 +23403,11 @@
       </c>
       <c r="O177" s="46" t="str">
         <f>IF($C$66&gt;=4,"2列目 BD内径（めっき含・概算）","-")</f>
-        <v>2列目 BD内径（めっき含・概算）</v>
-      </c>
-      <c r="P177" s="36">
-        <f ca="1">IF($C$66&gt;=4,($P$89*$P$162+$P$97*$P$154)/($P$81-$P$73)+$C$19*2,"-")</f>
-        <v>155.21164997523334</v>
+        <v>-</v>
+      </c>
+      <c r="P177" s="36" t="str">
+        <f>IF($C$66&gt;=4,($P$89*$P$162+$P$97*$P$154)/($P$81-$P$73)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.4">
@@ -23634,7 +23428,7 @@
       </c>
       <c r="J178" s="57">
         <f>IF($J$196&gt;=7.1, $C$127, $C$128)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K178" s="43"/>
       <c r="M178" s="3">
@@ -23646,11 +23440,11 @@
       </c>
       <c r="O178" s="46" t="str">
         <f>IF($C$66&gt;=5,"3列目 BD内径（めっき含・概算）","-")</f>
-        <v>3列目 BD内径（めっき含・概算）</v>
-      </c>
-      <c r="P178" s="36">
-        <f ca="1">IF($C$66&gt;=5,($P$90*$P$163+$P$98*$P$155)/($P$82-$P$74)+$C$19*2,"-")</f>
-        <v>155.11472317886205</v>
+        <v>-</v>
+      </c>
+      <c r="P178" s="36" t="str">
+        <f>IF($C$66&gt;=5,($P$90*$P$163+$P$98*$P$155)/($P$82-$P$74)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="179" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -23669,13 +23463,13 @@
       <c r="I179" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J179" s="66">
+      <c r="J179" s="66" t="e">
         <f>$J$13</f>
-        <v>-0.48299999999999998</v>
-      </c>
-      <c r="K179" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K179" s="27" t="e">
         <f>-$C$119+$J$179</f>
-        <v>-0.55599999999999994</v>
+        <v>#NUM!</v>
       </c>
       <c r="M179" s="3">
         <f t="shared" si="2"/>
@@ -23686,11 +23480,11 @@
       </c>
       <c r="O179" s="46" t="str">
         <f>IF($C$66&gt;=6,"4列目 BD内径（めっき含・概算）","-")</f>
-        <v>4列目 BD内径（めっき含・概算）</v>
-      </c>
-      <c r="P179" s="36">
-        <f ca="1">IF($C$66&gt;=6,($P$91*$P$164+$P$99*$P$156)/($P$83-$P$75)+$C$19*2,"-")</f>
-        <v>155.02466890346994</v>
+        <v>-</v>
+      </c>
+      <c r="P179" s="36" t="str">
+        <f>IF($C$66&gt;=6,($P$91*$P$164+$P$99*$P$156)/($P$83-$P$75)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="180" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -23797,9 +23591,9 @@
       <c r="O182" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="P182" s="2">
+      <c r="P182" s="2" t="e">
         <f ca="1">($P$94*$P$167+$P$102*$P$159)/($P$86-$P$78)+$C$19*2</f>
-        <v>154.94107905169022</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.4">
@@ -23820,7 +23614,7 @@
       </c>
       <c r="J183" s="57">
         <f>$C$46</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K183" s="43"/>
       <c r="M183" s="3">
@@ -23880,7 +23674,7 @@
       </c>
       <c r="J186" s="27">
         <f>IF($C$46=4, "#0", $C$48+($D$48+$E$48)/2)</f>
-        <v>174.36</v>
+        <v>0</v>
       </c>
       <c r="K186" s="43"/>
       <c r="M186" s="3">
@@ -23907,7 +23701,7 @@
       </c>
       <c r="J187" s="27">
         <f>$C$49+($D$49+$E$49)/2</f>
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="K187" s="43"/>
       <c r="M187" s="3">
@@ -23937,7 +23731,7 @@
       </c>
       <c r="J188" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K188" s="60"/>
       <c r="M188" s="3">
@@ -23967,7 +23761,7 @@
       </c>
       <c r="J189" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K189" s="60"/>
       <c r="M189" s="3">
@@ -24007,9 +23801,9 @@
       <c r="N190" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="P190" s="2">
+      <c r="P190" s="2" t="e">
         <f>SQRT(P14^2-(P15-P28)^2)</f>
-        <v>5726.7759390100991</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="191" spans="2:16" x14ac:dyDescent="0.4">
@@ -24034,9 +23828,9 @@
       <c r="N191" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="P191" s="2">
+      <c r="P191" s="2" t="e">
         <f>SQRT(P14^2-(P15+P28)^2)</f>
-        <v>5721.3602102668729</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.4">
@@ -24049,13 +23843,13 @@
       <c r="I192" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J192" s="27">
+      <c r="J192" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K192" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K192" s="27" t="e">
         <f>$C$118+$J$192</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="M192" s="3">
         <f t="shared" si="2"/>
@@ -24066,7 +23860,7 @@
       </c>
       <c r="P192" s="2">
         <f>P28*P15</f>
-        <v>15500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="7:16" x14ac:dyDescent="0.4">
@@ -24081,7 +23875,7 @@
       </c>
       <c r="J193" s="27">
         <f>$J$4</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K193" s="44"/>
       <c r="M193" s="3">
@@ -24108,7 +23902,7 @@
       </c>
       <c r="J194" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
       <c r="M194" s="3">
         <f t="shared" si="2"/>
@@ -24134,7 +23928,7 @@
       </c>
       <c r="J195" s="27">
         <f>$C$50+($D$50+$E$50)/2</f>
-        <v>24.15</v>
+        <v>0</v>
       </c>
       <c r="K195" s="60"/>
       <c r="M195" s="3">
@@ -24164,7 +23958,7 @@
       </c>
       <c r="J196" s="27">
         <f>$C$51+($D$51+$E$51)/2</f>
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="K196" s="60"/>
       <c r="M196" s="3">
@@ -24206,9 +24000,9 @@
       <c r="I199" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J199" s="57" cm="1">
+      <c r="J199" s="57" t="e" cm="1">
         <f t="array" ref="J199">_xlfn.IFS($C$86=15, $C$129, $C$86=30, $C$130, OR($C$86=45, $C$88&lt;&gt;0), $C$131)</f>
-        <v>12</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="7:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -24221,13 +24015,13 @@
       <c r="I200" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J200" s="66">
+      <c r="J200" s="66" t="e">
         <f>$J$13</f>
-        <v>-0.48299999999999998</v>
-      </c>
-      <c r="K200" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K200" s="27" t="e">
         <f>-$C$119+$J$200</f>
-        <v>-0.55599999999999994</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="201" spans="7:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -24318,13 +24112,13 @@
       <c r="I206" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J206" s="27">
+      <c r="J206" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K206" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K206" s="27" t="e">
         <f>$C$118+$J$206</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="207" spans="7:16" x14ac:dyDescent="0.4">
@@ -24339,7 +24133,7 @@
       </c>
       <c r="J207" s="27">
         <f>$J$4</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K207" s="44"/>
     </row>
@@ -24355,7 +24149,7 @@
       </c>
       <c r="J208" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="7:16" x14ac:dyDescent="0.4">
@@ -24370,7 +24164,7 @@
       </c>
       <c r="J209" s="27">
         <f>IF($C$84&lt;&gt;0,$C$85, $C$89)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="7:16" x14ac:dyDescent="0.4">
@@ -24385,7 +24179,7 @@
       </c>
       <c r="J210" s="27">
         <f>IF($C$32&lt;&gt;1, $C$16, $C$40)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="7:16" x14ac:dyDescent="0.4">
@@ -24414,9 +24208,9 @@
       <c r="I213" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J213" s="57" cm="1">
+      <c r="J213" s="57" t="e" cm="1">
         <f t="array" ref="J213">_xlfn.IFS($C$93=15, $C$129, $C$93=30, $C$130, OR($C$93=45, $C$95&lt;&gt;0), $C$131)</f>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="7:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -24429,13 +24223,13 @@
       <c r="I214" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J214" s="66">
+      <c r="J214" s="66" t="e">
         <f>$J$13</f>
-        <v>-0.48299999999999998</v>
-      </c>
-      <c r="K214" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K214" s="27" t="e">
         <f>-$C$119+$J$214</f>
-        <v>-0.55599999999999994</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="215" spans="7:16" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -24527,13 +24321,13 @@
       <c r="I220" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J220" s="27">
+      <c r="J220" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K220" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K220" s="27" t="e">
         <f>$C$118+$J$220</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="221" spans="7:16" x14ac:dyDescent="0.4">
@@ -24548,7 +24342,7 @@
       </c>
       <c r="J221" s="27">
         <f>$J$4</f>
-        <v>399.75</v>
+        <v>0</v>
       </c>
       <c r="K221" s="44"/>
     </row>
@@ -24564,7 +24358,7 @@
       </c>
       <c r="J222" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="7:16" x14ac:dyDescent="0.4">
@@ -24579,7 +24373,7 @@
       </c>
       <c r="J223" s="27">
         <f>IF($C$91&lt;&gt;0,$C$92, $C$96)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="7:16" x14ac:dyDescent="0.4">
@@ -24592,9 +24386,9 @@
       <c r="I224" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J224" s="27">
+      <c r="J224" s="27" t="e">
         <f ca="1">$P$114</f>
-        <v>4.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="225" spans="7:11" x14ac:dyDescent="0.4">
@@ -24609,7 +24403,7 @@
       </c>
       <c r="J225" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K225" s="5"/>
     </row>
@@ -24652,13 +24446,13 @@
       <c r="I229" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J229" s="66">
+      <c r="J229" s="66" t="e">
         <f>$J$14</f>
-        <v>179.517</v>
-      </c>
-      <c r="K229" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K229" s="27" t="e">
         <f>-$C$119+$J$229</f>
-        <v>179.44399999999999</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="230" spans="7:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -24686,13 +24480,13 @@
       <c r="I231" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J231" s="27">
+      <c r="J231" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K231" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K231" s="27" t="e">
         <f>$C$118+$J$231</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="232" spans="7:11" x14ac:dyDescent="0.4">
@@ -24705,9 +24499,9 @@
       <c r="I232" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J232" s="27">
+      <c r="J232" s="27" t="e">
         <f ca="1">$P$117</f>
-        <v>3.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="233" spans="7:11" x14ac:dyDescent="0.4">
@@ -24746,13 +24540,13 @@
       <c r="I236" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J236" s="66">
+      <c r="J236" s="66" t="e">
         <f>$J$14</f>
-        <v>179.517</v>
-      </c>
-      <c r="K236" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K236" s="27" t="e">
         <f>-$C$119+$J$261</f>
-        <v>179.44399999999999</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="237" spans="7:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -24814,7 +24608,7 @@
       </c>
       <c r="J240" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K240" s="60"/>
     </row>
@@ -24830,7 +24624,7 @@
       </c>
       <c r="J241" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K241" s="60"/>
     </row>
@@ -24844,13 +24638,13 @@
       <c r="I242" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J242" s="27">
+      <c r="J242" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K242" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K242" s="27" t="e">
         <f>$C$118+$J$242</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="243" spans="7:11" x14ac:dyDescent="0.4">
@@ -24923,13 +24717,13 @@
       <c r="I248" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J248" s="66">
+      <c r="J248" s="66" t="e">
         <f>$J$14</f>
-        <v>179.517</v>
-      </c>
-      <c r="K248" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K248" s="27" t="e">
         <f>-$C$119+$J$261</f>
-        <v>179.44399999999999</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="249" spans="7:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -24991,7 +24785,7 @@
       </c>
       <c r="J252" s="27">
         <f>$P$16</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K252" s="60"/>
     </row>
@@ -25007,7 +24801,7 @@
       </c>
       <c r="J253" s="27">
         <f>$P$17</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="K253" s="43"/>
     </row>
@@ -25021,13 +24815,13 @@
       <c r="I254" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J254" s="27">
+      <c r="J254" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K254" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K254" s="27" t="e">
         <f>$C$118+$J$242</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="255" spans="7:11" x14ac:dyDescent="0.4">
@@ -25042,7 +24836,7 @@
       </c>
       <c r="J255" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="7:11" x14ac:dyDescent="0.4">
@@ -25101,9 +24895,9 @@
       <c r="I260" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J260" s="57" cm="1">
+      <c r="J260" s="57" t="e" cm="1">
         <f t="array" ref="J260">_xlfn.IFS($C$72=15, $C$129, $C$72=30, $C$130, OR($C$72=45, $C$74&lt;&gt;0), $C$131)</f>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="261" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -25116,13 +24910,13 @@
       <c r="I261" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J261" s="66">
+      <c r="J261" s="66" t="e">
         <f>$J$14</f>
-        <v>179.517</v>
-      </c>
-      <c r="K261" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K261" s="27" t="e">
         <f>-$C$119+$J$261</f>
-        <v>179.44399999999999</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="262" spans="7:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -25214,13 +25008,13 @@
       <c r="I267" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J267" s="27">
+      <c r="J267" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K267" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K267" s="27" t="e">
         <f>$C$118+$J$267</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="268" spans="7:11" x14ac:dyDescent="0.4">
@@ -25235,7 +25029,7 @@
       </c>
       <c r="J268" s="27">
         <f>$J$5</f>
-        <v>499.75</v>
+        <v>0</v>
       </c>
       <c r="K268" s="44"/>
     </row>
@@ -25251,7 +25045,7 @@
       </c>
       <c r="J269" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="7:11" x14ac:dyDescent="0.4">
@@ -25266,7 +25060,7 @@
       </c>
       <c r="J270" s="27">
         <f>IF($C$70&lt;&gt;0,$C$71, $C$75)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="7:11" x14ac:dyDescent="0.4">
@@ -25281,7 +25075,7 @@
       </c>
       <c r="J271" s="27">
         <f>IF($C$23&lt;&gt;1, $C$16, $C$30)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="7:11" x14ac:dyDescent="0.4">
@@ -25307,9 +25101,9 @@
       <c r="I274" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J274" s="57" cm="1">
+      <c r="J274" s="57" t="e" cm="1">
         <f t="array" ref="J274">_xlfn.IFS($C$79=15, $C$129, $C$79=30, $C$130, OR($C$79=45, $C$81&lt;&gt;0), $C$131)</f>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="275" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -25322,13 +25116,13 @@
       <c r="I275" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J275" s="66">
+      <c r="J275" s="66" t="e">
         <f>$J$14</f>
-        <v>179.517</v>
-      </c>
-      <c r="K275" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K275" s="27" t="e">
         <f>-$C$119+$J$275</f>
-        <v>179.44399999999999</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="276" spans="7:11" ht="15" thickTop="1" x14ac:dyDescent="0.4">
@@ -25372,13 +25166,13 @@
       <c r="I278" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J278" s="27">
+      <c r="J278" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K278" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K278" s="27" t="e">
         <f>$C$118+$J$278</f>
-        <v>-700.17743964602153</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="279" spans="7:11" x14ac:dyDescent="0.4">
@@ -25393,7 +25187,7 @@
       </c>
       <c r="J279" s="27">
         <f>$J$5</f>
-        <v>499.75</v>
+        <v>0</v>
       </c>
       <c r="K279" s="44"/>
     </row>
@@ -25409,7 +25203,7 @@
       </c>
       <c r="J280" s="27">
         <f>$C$7</f>
-        <v>5922.6750000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="7:11" x14ac:dyDescent="0.4">
@@ -25424,7 +25218,7 @@
       </c>
       <c r="J281" s="27">
         <f>IF($C$77&lt;&gt;0,$C$78, $C$82)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="7:11" x14ac:dyDescent="0.4">
@@ -25437,9 +25231,9 @@
       <c r="I282" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J282" s="27">
+      <c r="J282" s="27" t="e">
         <f ca="1">$P$117</f>
-        <v>3.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="283" spans="7:11" x14ac:dyDescent="0.4">
@@ -25454,7 +25248,7 @@
       </c>
       <c r="J283" s="27">
         <f>$C$19</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="K283" s="5"/>
     </row>
@@ -25511,13 +25305,13 @@
       <c r="I288" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J288" s="27">
+      <c r="J288" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K288" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K288" s="27" t="e">
         <f>$C$117+$J$288</f>
-        <v>-100.31556035397841</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="289" spans="7:11" x14ac:dyDescent="0.4">
@@ -25530,13 +25324,13 @@
       <c r="I289" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J289" s="27">
+      <c r="J289" s="27" t="e">
         <f>$J$10</f>
-        <v>449.79656035397841</v>
-      </c>
-      <c r="K289" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K289" s="27" t="e">
         <f>$C$117-$J$289</f>
-        <v>-999.81556035397841</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="290" spans="7:11" x14ac:dyDescent="0.4">
@@ -25615,7 +25409,7 @@
       </c>
       <c r="J294" s="27">
         <f>$J$195</f>
-        <v>24.15</v>
+        <v>0</v>
       </c>
       <c r="K294" s="60"/>
     </row>
@@ -25661,9 +25455,9 @@
       <c r="I297" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J297" s="27">
+      <c r="J297" s="27" t="e">
         <f>$J$13</f>
-        <v>-0.48299999999999998</v>
+        <v>#NUM!</v>
       </c>
       <c r="K297" s="5"/>
     </row>
@@ -25728,9 +25522,9 @@
       <c r="I306" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J306" s="40">
+      <c r="J306" s="40" t="e">
         <f>$C$64/$C$63+1</f>
-        <v>7</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="307" spans="2:20" x14ac:dyDescent="0.4">
@@ -25743,9 +25537,9 @@
       <c r="I307" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J307" s="41">
+      <c r="J307" s="41" t="e">
         <f>$C$65/$C$63+1</f>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="308" spans="2:20" x14ac:dyDescent="0.4">
@@ -25757,7 +25551,7 @@
       </c>
       <c r="J308" s="41">
         <f>_xlfn.CEILING.MATH($C$66/2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="2:20" x14ac:dyDescent="0.4">
@@ -25769,7 +25563,7 @@
       </c>
       <c r="J309" s="41">
         <f>QUOTIENT($C$66,2)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="2:20" x14ac:dyDescent="0.4">
@@ -25784,14 +25578,14 @@
       </c>
       <c r="H311" s="10" t="str">
         <f>IF($C$66&gt;=3,"ディンプル1列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル1列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I311" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J311" s="27">
+      <c r="J311" s="27" t="str">
         <f>IF($C$66&gt;=$C$122-5,$P$104-$P$31, "-")</f>
-        <v>7.35981929400441</v>
+        <v>-</v>
       </c>
     </row>
     <row r="312" spans="2:20" ht="16.5" x14ac:dyDescent="0.4">
@@ -25800,14 +25594,14 @@
       </c>
       <c r="H312" s="10" t="str">
         <f>IF($C$66&gt;=4,"ディンプル2列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル2列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I312" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J312" s="27">
+      <c r="J312" s="27" t="str">
         <f>IF($C$66&gt;=$C122-4,$P$105-$P$31, "-")</f>
-        <v>8.237802765404922</v>
+        <v>-</v>
       </c>
     </row>
     <row r="313" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -25818,14 +25612,14 @@
       <c r="F313" s="1"/>
       <c r="H313" s="10" t="str">
         <f>IF($C$66&gt;=5,"ディンプル3列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル3列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I313" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J313" s="27">
+      <c r="J313" s="27" t="str">
         <f>IF($C$66&gt;=$C$122-3,$P$106-$P$31, "-")</f>
-        <v>9.0480684507256228</v>
+        <v>-</v>
       </c>
       <c r="L313" s="1"/>
       <c r="N313" s="37"/>
@@ -25844,14 +25638,14 @@
       <c r="F314" s="1"/>
       <c r="H314" s="10" t="str">
         <f>IF($C$66&gt;=6,"ディンプル4列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル4列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I314" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J314" s="27">
+      <c r="J314" s="27" t="str">
         <f>IF($C$66&gt;=$C$122-2,$P$107-$P$31, "-")</f>
-        <v>9.7906441602917766</v>
+        <v>-</v>
       </c>
       <c r="L314" s="1"/>
       <c r="N314" s="37"/>
@@ -25928,7 +25722,7 @@
       </c>
       <c r="J317" s="27">
         <f>$P$110-$P$31</f>
-        <v>10.465555367770321</v>
+        <v>0</v>
       </c>
       <c r="L317" s="1"/>
       <c r="N317" s="37"/>
@@ -25956,7 +25750,7 @@
       </c>
       <c r="J318" s="27">
         <f>$P$111-$P$31</f>
-        <v>11.072825214545446</v>
+        <v>0</v>
       </c>
       <c r="L318" s="1"/>
       <c r="N318" s="37"/>
@@ -25978,18 +25772,18 @@
       </c>
       <c r="H319" s="9" t="str">
         <f>IF($C$66&gt;=3,"（傾き前）1列目Z座標","-")</f>
-        <v>（傾き前）1列目Z座標</v>
+        <v>-</v>
       </c>
       <c r="I319" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J319" s="49">
+      <c r="J319" s="49" t="str">
         <f>IF($C$66&gt;=3,$J$9-$C$61,"-")</f>
-        <v>319.70343964602159</v>
-      </c>
-      <c r="K319" s="27">
+        <v>-</v>
+      </c>
+      <c r="K319" s="27" t="str">
         <f>IF($C$66&gt;=3,$C$118+J319,"-")</f>
-        <v>-830.27056035397834</v>
+        <v>-</v>
       </c>
       <c r="L319" s="1"/>
       <c r="N319" s="37"/>
@@ -26011,18 +25805,18 @@
       </c>
       <c r="H320" s="9" t="str">
         <f>IF($C$66&gt;=4,"（傾き前）2列目Z座標","-")</f>
-        <v>（傾き前）2列目Z座標</v>
+        <v>-</v>
       </c>
       <c r="I320" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J320" s="49">
+      <c r="J320" s="49" t="str">
         <f>IF($C$66&gt;=4,$J$9-$C$61-$C$62,"-")</f>
-        <v>299.70343964602159</v>
-      </c>
-      <c r="K320" s="27">
+        <v>-</v>
+      </c>
+      <c r="K320" s="27" t="str">
         <f>IF($C$66&gt;=4,$C$118+J320,"-")</f>
-        <v>-850.27056035397834</v>
+        <v>-</v>
       </c>
       <c r="L320" s="1"/>
       <c r="N320" s="37"/>
@@ -26041,18 +25835,18 @@
       <c r="F321" s="1"/>
       <c r="H321" s="9" t="str">
         <f>IF($C$66&gt;=5,"（傾き前）3列目Z座標","-")</f>
-        <v>（傾き前）3列目Z座標</v>
+        <v>-</v>
       </c>
       <c r="I321" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J321" s="49">
+      <c r="J321" s="49" t="str">
         <f>IF($C$66&gt;=5,$J$9-$C$61-2*$C$62,"-")</f>
-        <v>279.70343964602159</v>
-      </c>
-      <c r="K321" s="27">
+        <v>-</v>
+      </c>
+      <c r="K321" s="27" t="str">
         <f>IF($C$66&gt;=5,$C$118+J321,"-")</f>
-        <v>-870.27056035397834</v>
+        <v>-</v>
       </c>
       <c r="L321" s="1"/>
       <c r="N321" s="37"/>
@@ -26071,18 +25865,18 @@
       <c r="F322" s="1"/>
       <c r="H322" s="9" t="str">
         <f>IF($C$66&gt;=6,"（傾き前）4列目Z座標","-")</f>
-        <v>（傾き前）4列目Z座標</v>
+        <v>-</v>
       </c>
       <c r="I322" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J322" s="49">
+      <c r="J322" s="49" t="str">
         <f>IF($C$66&gt;=6,$J$9-$C$61-3*$C$62,"-")</f>
-        <v>259.70343964602159</v>
-      </c>
-      <c r="K322" s="27">
+        <v>-</v>
+      </c>
+      <c r="K322" s="27" t="str">
         <f>IF($C$66&gt;=6,$C$118+J322,"-")</f>
-        <v>-890.27056035397834</v>
+        <v>-</v>
       </c>
       <c r="L322" s="1"/>
       <c r="N322" s="37"/>
@@ -26165,13 +25959,13 @@
       <c r="I325" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J325" s="49">
+      <c r="J325" s="49" t="e">
         <f>$J$9-$C$61-($C$66-2)*$C$62</f>
-        <v>239.70343964602159</v>
-      </c>
-      <c r="K325" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K325" s="27" t="e">
         <f>$C$118+J325</f>
-        <v>-910.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="L325" s="1"/>
       <c r="N325" s="37"/>
@@ -26197,13 +25991,13 @@
       <c r="I326" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J326" s="49">
+      <c r="J326" s="49" t="e">
         <f>$J$9-$C$61-($C$66-1)*$C$62</f>
-        <v>219.70343964602159</v>
-      </c>
-      <c r="K326" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K326" s="27" t="e">
         <f>$C$118+J326</f>
-        <v>-930.27056035397834</v>
+        <v>#NUM!</v>
       </c>
       <c r="L326" s="1"/>
       <c r="N326" s="37"/>
@@ -26229,9 +26023,9 @@
       <c r="I327" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J327" s="27">
+      <c r="J327" s="27" t="e">
         <f ca="1">$P$112+$C$19*2</f>
-        <v>156.9540153433494</v>
+        <v>#REF!</v>
       </c>
       <c r="L327" s="1"/>
       <c r="N327" s="37"/>
@@ -26253,14 +26047,14 @@
       </c>
       <c r="H328" s="10" t="str">
         <f>IF($C$66&gt;=3,"1列目 AC内径（水平・めっき含・概算）","-")</f>
-        <v>1列目 AC内径（水平・めっき含・概算）</v>
+        <v>-</v>
       </c>
       <c r="I328" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J328" s="27">
-        <f ca="1">IF($C$66&gt;=3,($P$88*$P$126+$P$96*$P$118)/($P$80-$P$72)+$C$19*2,"-")</f>
-        <v>156.31846012189163</v>
+      <c r="J328" s="27" t="str">
+        <f>IF($C$66&gt;=3,($P$88*$P$126+$P$96*$P$118)/($P$80-$P$72)+$C$19*2,"-")</f>
+        <v>-</v>
       </c>
       <c r="L328" s="1"/>
       <c r="N328" s="37"/>
@@ -26278,9 +26072,9 @@
       <c r="I329" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J329" s="27">
+      <c r="J329" s="27" t="e">
         <f ca="1">($P$95*$P$133+$P$103*$P$125)/($P$87-$P$79)+$C$19*2</f>
-        <v>155.87054257469595</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="330" spans="2:20" x14ac:dyDescent="0.4">
@@ -26290,13 +26084,13 @@
       <c r="I330" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="J330" s="27">
+      <c r="J330" s="27" t="e">
         <f ca="1">$J$13+$J$131</f>
-        <v>-3.5409999999999999</v>
-      </c>
-      <c r="K330" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K330" s="27" t="e">
         <f ca="1">-$C$119+$J$330</f>
-        <v>-3.6139999999999999</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="331" spans="2:20" x14ac:dyDescent="0.4">
@@ -26309,9 +26103,9 @@
       <c r="I331" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J331" s="47">
+      <c r="J331" s="47" t="e">
         <f ca="1">DEGREES($P$148)</f>
-        <v>2.2830516246447536</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="332" spans="2:20" x14ac:dyDescent="0.4">
@@ -26324,13 +26118,13 @@
       <c r="I332" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J332" s="47">
+      <c r="J332" s="47" t="e">
         <f ca="1">$J$13+$J$331</f>
-        <v>1.8000516246447535</v>
-      </c>
-      <c r="K332" s="47">
+        <v>#NUM!</v>
+      </c>
+      <c r="K332" s="47" t="e">
         <f ca="1">-$C$119+$J$332</f>
-        <v>1.7270516246447536</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="333" spans="2:20" x14ac:dyDescent="0.4">
@@ -26340,9 +26134,9 @@
       <c r="I333" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="J333" s="27">
+      <c r="J333" s="27" t="e">
         <f ca="1">MIN($P$151, $P$152)</f>
-        <v>17.011452303904377</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="334" spans="2:20" x14ac:dyDescent="0.4">
@@ -26355,9 +26149,9 @@
       <c r="I334" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J334" s="27">
+      <c r="J334" s="27" t="e">
         <f ca="1">($P$88*$P$161+$P$96*$P$153)/($P$80-$P$72)+$C$19*2</f>
-        <v>155.30857677160463</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="335" spans="2:20" x14ac:dyDescent="0.4">
@@ -26367,9 +26161,9 @@
       <c r="I335" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J335" s="27">
+      <c r="J335" s="27" t="e">
         <f ca="1">($P$95*$P$168+$P$103*$P$160)/($P$87-$P$79)+$C$19*2</f>
-        <v>154.86355555513762</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="336" spans="2:20" x14ac:dyDescent="0.4">
@@ -26381,53 +26175,53 @@
     <row r="337" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H337" s="10" t="str">
         <f>IF($C$66&gt;=3,"ディンプル1列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル1列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I337" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J337" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-5,$J$311*$P$142-$C$61*$P$141, "-")</f>
-        <v>0.41425095578780269</v>
+      <c r="J337" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-5,$J$311*$P$142-$C$61*$P$141, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="338" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H338" s="10" t="str">
         <f>IF($C$66&gt;=4,"ディンプル2列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル2列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I338" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J338" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-4,$J$312*$P$142-($C$61+$C62)*$P$141, "-")</f>
-        <v>0.22404755902067386</v>
+      <c r="J338" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-4,$J$312*$P$142-($C$61+$C62)*$P$141, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="339" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H339" s="10" t="str">
         <f>IF($C$66&gt;=5,"ディンプル3列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル3列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I339" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J339" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-3,$J$313*$P$142-($C$61+2*$C$62)*$P$141, "-")</f>
-        <v>-3.3777196670591536E-2</v>
+      <c r="J339" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-3,$J$313*$P$142-($C$61+2*$C$62)*$P$141, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="340" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H340" s="10" t="str">
         <f>IF($C$66&gt;=6,"ディンプル4列目-トップ端 湾曲中心間X距離", "-")</f>
-        <v>ディンプル4列目-トップ端 湾曲中心間X距離</v>
+        <v>-</v>
       </c>
       <c r="I340" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J340" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-2,$J$314*$P$142-($C$61+3*$C$62)*$P$141, "-")</f>
-        <v>-0.35919554056141045</v>
+      <c r="J340" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-2,$J$314*$P$142-($C$61+3*$C$62)*$P$141, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="341" spans="8:10" x14ac:dyDescent="0.4">
@@ -26463,9 +26257,9 @@
       <c r="I343" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J343" s="27">
+      <c r="J343" s="27" t="e">
         <f ca="1">$J$317*$P$142-($C$61+($C$66-2)*$C$62)*$P$141</f>
-        <v>-0.75218203525822958</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="344" spans="8:10" x14ac:dyDescent="0.4">
@@ -26475,61 +26269,61 @@
       <c r="I344" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J344" s="27">
+      <c r="J344" s="27" t="e">
         <f ca="1">$J$318*$P$142-($C$61+($C$66-1)*$C$62)*$P$141</f>
-        <v>-1.2127135723291786</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="345" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H345" s="10" t="str">
         <f>IF($C$66&gt;=3,"ディンプル1列目-トップ端 湾曲中心間Z距離", "-")</f>
-        <v>ディンプル1列目-トップ端 湾曲中心間Z距離</v>
+        <v>-</v>
       </c>
       <c r="I345" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J345" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-5,$J$311*$P$141+$C$61*$P$142, "-")</f>
-        <v>130.20750875501008</v>
+      <c r="J345" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-5,$J$311*$P$141+$C$61*$P$142, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="346" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H346" s="10" t="str">
         <f>IF($C$66&gt;=4,"ディンプル2列目-トップ端 湾曲中心間Z距離", "-")</f>
-        <v>ディンプル2列目-トップ端 湾曲中心間Z距離</v>
+        <v>-</v>
       </c>
       <c r="I346" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J346" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-4,$J$312*$P$141+($C$61+$C$62)*$P$142, "-")</f>
-        <v>150.22586727023082</v>
+      <c r="J346" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-4,$J$312*$P$141+($C$61+$C$62)*$P$142, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="347" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H347" s="10" t="str">
         <f>IF($C$66&gt;=5,"ディンプル3列目-トップ端 湾曲中心間Z距離", "-")</f>
-        <v>ディンプル3列目-トップ端 湾曲中心間Z距離</v>
+        <v>-</v>
       </c>
       <c r="I347" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J347" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-3,$J$313*$P$141+($C$61+2*$C$62)*$P$142, "-")</f>
-        <v>170.24061325603242</v>
+      <c r="J347" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-3,$J$313*$P$141+($C$61+2*$C$62)*$P$142, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="348" spans="8:10" x14ac:dyDescent="0.4">
       <c r="H348" s="10" t="str">
         <f>IF($C$66&gt;=6,"ディンプル4列目-トップ端 湾曲中心間Z距離", "-")</f>
-        <v>ディンプル4列目-トップ端 湾曲中心間Z距離</v>
+        <v>-</v>
       </c>
       <c r="I348" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J348" s="27">
-        <f ca="1">IF($C$66&gt;=$C$122-2,$J$314*$P$141+($C$61+3*$C$62)*$P$142, "-")</f>
-        <v>190.25174819600764</v>
+      <c r="J348" s="27" t="str">
+        <f>IF($C$66&gt;=$C$122-2,$J$314*$P$141+($C$61+3*$C$62)*$P$142, "-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="349" spans="8:10" x14ac:dyDescent="0.4">
@@ -26565,9 +26359,9 @@
       <c r="I351" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J351" s="27">
+      <c r="J351" s="27" t="e">
         <f ca="1">$J$317*$P$141+($C$61+($C$66-2)*$C$62)*$P$142</f>
-        <v>210.25927344909593</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="352" spans="8:10" x14ac:dyDescent="0.4">
@@ -26577,9 +26371,9 @@
       <c r="I352" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J352" s="27">
+      <c r="J352" s="27" t="e">
         <f ca="1">$J$318*$P$141+($C$61+($C$66-1)*$C$62)*$P$142</f>
-        <v>230.26319024981686</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="353" spans="7:11" x14ac:dyDescent="0.4">
@@ -26598,13 +26392,13 @@
       <c r="I354" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J354" s="27">
+      <c r="J354" s="27" t="e">
         <f>$K$24-$C117</f>
-        <v>-16.407464003218593</v>
-      </c>
-      <c r="K354" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K354" s="27" t="e">
         <f>$C$117+J354</f>
-        <v>-566.4264640032186</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="355" spans="7:11" x14ac:dyDescent="0.4">
@@ -26617,13 +26411,13 @@
       <c r="I355" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J355" s="27">
+      <c r="J355" s="27" t="e">
         <f>$J$9</f>
-        <v>449.70343964602159</v>
-      </c>
-      <c r="K355" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K355" s="27" t="e">
         <f>$C$118+J355</f>
-        <v>-700.27056035397834</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="356" spans="7:11" x14ac:dyDescent="0.4">
@@ -26636,13 +26430,13 @@
       <c r="I356" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J356" s="27">
+      <c r="J356" s="27" t="e">
         <f ca="1">$J$354*$P$142+$J$355*$P$141</f>
-        <v>7.6061537601040499</v>
-      </c>
-      <c r="K356" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K356" s="27" t="e">
         <f ca="1">$C$117+J356</f>
-        <v>-542.412846239896</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="357" spans="7:11" x14ac:dyDescent="0.4">
@@ -26655,13 +26449,13 @@
       <c r="I357" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J357" s="27">
+      <c r="J357" s="27" t="e">
         <f ca="1">-$J$354*$P$141+$J$355*$P$142</f>
-        <v>449.93836792327181</v>
-      </c>
-      <c r="K357" s="27">
+        <v>#NUM!</v>
+      </c>
+      <c r="K357" s="27" t="e">
         <f ca="1">$C$118+J357</f>
-        <v>-700.03563207672812</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="358" spans="7:11" x14ac:dyDescent="0.4">
@@ -26671,837 +26465,837 @@
       <c r="I358" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="J358" s="27">
+      <c r="J358" s="27" t="e">
         <f ca="1">$J$356-$J$354</f>
-        <v>24.013617763322642</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="359" spans="7:11" x14ac:dyDescent="0.4">
       <c r="H359" s="9" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="I359" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J359" s="27">
+      <c r="J359" s="27" t="e">
         <f ca="1">$J$357-$J$355</f>
-        <v>0.23492827725021925</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="expression" dxfId="167" priority="5">
+    <cfRule type="expression" dxfId="166" priority="5">
       <formula>$C$6&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:C25 B26:E29 B30:C30">
-    <cfRule type="expression" dxfId="166" priority="1">
+    <cfRule type="expression" dxfId="165" priority="1">
       <formula>$C$23&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:C26">
-    <cfRule type="expression" dxfId="165" priority="43">
+    <cfRule type="expression" dxfId="164" priority="43">
       <formula>$C$25&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:C33 B35:C35 B36:E39 B40:C40 G150:K150 G151:J154">
-    <cfRule type="expression" dxfId="164" priority="50">
+    <cfRule type="expression" dxfId="163" priority="50">
       <formula>$C$32&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="163" priority="2">
+    <cfRule type="expression" dxfId="162" priority="2">
       <formula>$C$23&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:C43 B44:E44">
-    <cfRule type="expression" dxfId="162" priority="143">
+    <cfRule type="expression" dxfId="161" priority="143">
       <formula>NOT(AND($C$23=1, $C$32=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:C53">
-    <cfRule type="expression" dxfId="161" priority="4">
+    <cfRule type="expression" dxfId="160" priority="4">
       <formula>$C$47=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="expression" dxfId="160" priority="104">
+    <cfRule type="expression" dxfId="159" priority="104">
       <formula>$C$46&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:C58">
-    <cfRule type="expression" dxfId="159" priority="103">
+    <cfRule type="expression" dxfId="158" priority="103">
       <formula>$C$46&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:C68 H120:K120 H121:J131">
-    <cfRule type="expression" dxfId="158" priority="32">
+    <cfRule type="expression" dxfId="157" priority="32">
       <formula>$C$60&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:C72">
-    <cfRule type="expression" dxfId="157" priority="99">
+    <cfRule type="expression" dxfId="156" priority="99">
       <formula>$C$70&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="expression" dxfId="156" priority="90">
+    <cfRule type="expression" dxfId="155" priority="90">
       <formula>$C74&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:C79">
-    <cfRule type="expression" dxfId="155" priority="98">
+    <cfRule type="expression" dxfId="154" priority="98">
       <formula>$C$77&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:C82">
-    <cfRule type="expression" dxfId="154" priority="89">
+    <cfRule type="expression" dxfId="153" priority="89">
       <formula>$C$81&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:C86">
-    <cfRule type="expression" dxfId="153" priority="82">
+    <cfRule type="expression" dxfId="152" priority="82">
       <formula>$C$84&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89:C89">
-    <cfRule type="expression" dxfId="152" priority="88">
+    <cfRule type="expression" dxfId="151" priority="88">
       <formula>$C$88&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92:C93">
-    <cfRule type="expression" dxfId="151" priority="87">
+    <cfRule type="expression" dxfId="150" priority="87">
       <formula>$C$91&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:C96">
-    <cfRule type="expression" dxfId="150" priority="86">
+    <cfRule type="expression" dxfId="149" priority="86">
       <formula>$C$95&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:C103 G166:K166">
-    <cfRule type="expression" dxfId="149" priority="45">
+    <cfRule type="expression" dxfId="148" priority="45">
       <formula>$C$98&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:C109 G173:K173 G174:J175">
-    <cfRule type="expression" dxfId="148" priority="27">
+    <cfRule type="expression" dxfId="147" priority="27">
       <formula>$C$105&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:E36">
-    <cfRule type="expression" dxfId="147" priority="158">
+    <cfRule type="expression" dxfId="146" priority="158">
       <formula>AND($C$23&lt;&gt;0, $C$43&lt;&gt;2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:E39">
-    <cfRule type="expression" dxfId="146" priority="49">
+    <cfRule type="expression" dxfId="145" priority="49">
       <formula>$C$35&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:E48 C49:E49">
-    <cfRule type="expression" dxfId="145" priority="106">
+    <cfRule type="expression" dxfId="144" priority="106">
       <formula>$C$46=4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:E52">
-    <cfRule type="expression" dxfId="144" priority="149">
+    <cfRule type="expression" dxfId="143" priority="149">
       <formula>$C$47=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="143" priority="142">
+    <cfRule type="expression" dxfId="142" priority="142">
       <formula>$C$7&gt;2*P191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="142" priority="135">
+    <cfRule type="expression" dxfId="141" priority="135">
       <formula>OR(C9&lt;0, $J$9&lt;364, $J$10&lt;345)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C15">
-    <cfRule type="expression" dxfId="141" priority="136">
+    <cfRule type="expression" dxfId="140" priority="136">
       <formula>$C$14&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="140" priority="109">
+    <cfRule type="expression" dxfId="139" priority="109">
       <formula>OR($C$16&lt;=0, $C$16&gt;=MIN($C$14, $C$15)/4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="139" priority="108">
+    <cfRule type="expression" dxfId="138" priority="108">
       <formula>OR(ISBLANK($C$23), AND($C$23&lt;&gt;0, $C$23&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="138" priority="74">
+    <cfRule type="expression" dxfId="137" priority="74">
       <formula>OR(ISBLANK($C$24), AND($C$24&lt;&gt;0, $C$24&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="137" priority="42">
+    <cfRule type="expression" dxfId="136" priority="42">
       <formula>OR(ISBLANK($C$25), AND($C$25&lt;&gt;0, $C$25&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="136" priority="1354">
+    <cfRule type="expression" dxfId="135" priority="1354">
       <formula>IF($C$23=1,OR($C$26&lt;=0, $C$26&gt;=($C$14-$P$115)/2), $C$26&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="135" priority="139">
+    <cfRule type="expression" dxfId="134" priority="139">
       <formula>IF($C$23=1, OR($C$27&lt;=$C$14/2, $C$27&gt;=$C$14), $C$27&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="134" priority="160">
+    <cfRule type="expression" dxfId="133" priority="160">
       <formula>IF($C$23=1, $C$28&gt;=$C$15, $C$28&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="133" priority="141">
+    <cfRule type="expression" dxfId="132" priority="141">
       <formula>IF($C$23=1,OR($C$29&lt;=0, $C$29&gt;=#REF!/4),$C$29&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="132" priority="73">
+    <cfRule type="expression" dxfId="131" priority="73">
       <formula>OR($C$30&lt;1, $C$30&gt;=MIN($C$27, $C$28)/4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="131" priority="120">
+    <cfRule type="expression" dxfId="130" priority="120">
       <formula>OR(ISBLANK($C$32), AND($C$32&lt;&gt;0, $C$32&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="130" priority="100">
+    <cfRule type="expression" dxfId="129" priority="100">
       <formula>OR(ISBLANK($C$33), AND($C$33&lt;&gt;0, $C$33&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="129" priority="3">
+    <cfRule type="expression" dxfId="128" priority="3">
       <formula>OR(ISBLANK($C$34), AND($C$34&lt;&gt;0, $C$34&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="128" priority="77">
+    <cfRule type="expression" dxfId="127" priority="77">
       <formula>OR(ISBLANK($C$35), AND($C$35&lt;&gt;0, $C$35&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="127" priority="1355">
+    <cfRule type="expression" dxfId="126" priority="1355">
       <formula>IF($C$32=1,OR($C$36&lt;=0, $C$36&gt;=($C$14-$P$112)/2),$C$36&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C38">
-    <cfRule type="expression" dxfId="126" priority="161">
+    <cfRule type="expression" dxfId="125" priority="161">
       <formula>OR($C$37&lt;=$C$14/2, $C$37&gt;=$C$14, $C$37&lt;=$C$48)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="125" priority="162">
+    <cfRule type="expression" dxfId="124" priority="162">
       <formula>IF($C$32=1,OR($C$38&lt;=$C$49, $C$38&gt;=$C$15),$C$38&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="124" priority="51">
+    <cfRule type="expression" dxfId="123" priority="51">
       <formula>IF($C$32=1,OR($C$39&lt;=0, $C$39&gt;=$C$9/4),$C$39&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="123" priority="119">
+    <cfRule type="expression" dxfId="122" priority="119">
       <formula>OR($C$40&lt;=0, $C$40&gt;=MIN($C$37, $C$38)/4, $C$40&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="122" priority="155">
+    <cfRule type="expression" dxfId="121" priority="155">
       <formula>IF(AND($C$23=1, $C$32=1), AND($C$43&lt;&gt;1, $C$43&lt;&gt;2), $C$43&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="121" priority="154">
+    <cfRule type="expression" dxfId="120" priority="154">
       <formula>AND(AND($C$23=1, $C$32=1), OR(ISBLANK($C$44), $C$44&lt;0, $C$44&gt;=$C$27/4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="120" priority="121">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>OR(ISBLANK($C$46), AND($C$46&lt;&gt;1, $C$46&lt;&gt;2,$C$46&lt;&gt;3, $C$46&lt;&gt;4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="119" priority="107">
+    <cfRule type="expression" dxfId="118" priority="107">
       <formula>OR(ISBLANK($C$47), AND($C$47&lt;&gt;0, $C$47&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C49">
-    <cfRule type="expression" dxfId="118" priority="150">
+    <cfRule type="expression" dxfId="117" priority="150">
       <formula>IF($C$46&lt;&gt;4,OR($C$48&gt;=$C$14, AND($C$32=1, $C$48&gt;=$C$37),$C$48&lt;=$C$14/2),$C$48&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="117" priority="140">
+    <cfRule type="expression" dxfId="116" priority="140">
       <formula>OR($C$50&lt;=0, $C$50&gt;$C$9/2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="116" priority="147">
+    <cfRule type="expression" dxfId="115" priority="147">
       <formula>OR($C$51&lt;=0, $C$51+$C$50&gt;$S$2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="115" priority="1356">
+    <cfRule type="expression" dxfId="114" priority="1356">
       <formula>IF($C$47=1,OR($C$52&lt;=0, $C$52&gt;=($C$14-$P$175)/2),$C$52&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="114" priority="105">
+    <cfRule type="expression" dxfId="113" priority="105">
       <formula>AND($C$46=1, OR($C$57&lt;=0, $C$57&gt;=MIN($C$48, $C$49)/4), ISBLANK($C$57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="113" priority="102">
+    <cfRule type="expression" dxfId="112" priority="102">
       <formula>IF($C$46=2,OR($C$58&lt;=0, $C$58&gt;=MIN($C$48, $C$49)/4),$C$58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="112" priority="39">
+    <cfRule type="expression" dxfId="111" priority="39">
       <formula>OR(ISBLANK($C$60), AND($C$60&lt;&gt;0, $C$60&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="111" priority="145">
+    <cfRule type="expression" dxfId="110" priority="145">
       <formula>OR($C$64&lt;=0, MOD($C$64,$C$63)&lt;&gt;0, $C$64&gt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="expression" dxfId="110" priority="144">
+    <cfRule type="expression" dxfId="109" priority="144">
       <formula>OR(C66-QUOTIENT(C66,1)&lt;&gt;0, C66&lt;0, C66&gt;$C$122)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="109" priority="79">
+    <cfRule type="expression" dxfId="108" priority="79">
       <formula>OR(ISBLANK($C$68), AND($C$68&lt;&gt;20, $C$68&lt;&gt;6.6, $C$68&lt;&gt;15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="108" priority="118">
+    <cfRule type="expression" dxfId="107" priority="118">
       <formula>OR(ISBLANK($C$70), AND($C$70&lt;&gt;0, $C$70&lt;&gt;1), AND($C$74&lt;&gt;0, $C$70=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="107" priority="117">
+    <cfRule type="expression" dxfId="106" priority="117">
       <formula>IF($C$70=1,OR($C$71&lt;=0, $C$71&gt;=#REF!/4),$C$71&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="106" priority="113">
+    <cfRule type="expression" dxfId="105" priority="113">
       <formula>IF($C$70=1,AND($C$72&lt;&gt;15, $C$72&lt;&gt;30, $C$72&lt;&gt;45),$C$72&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="105" priority="97">
+    <cfRule type="expression" dxfId="104" priority="97">
       <formula>OR(AND($C$74&lt;&gt;0, $C$74&lt;&gt;1), AND($C$70&lt;&gt;0, $C$74=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="104" priority="96">
+    <cfRule type="expression" dxfId="103" priority="96">
       <formula>IF($C$74=1,OR($C$75&lt;=0, $C$75&gt;=#REF!/4),$C$75&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="103" priority="115">
+    <cfRule type="expression" dxfId="102" priority="115">
       <formula>OR(ISBLANK($C$77), AND($C$77&lt;&gt;0, $C$77&lt;&gt;1), AND($C$81&lt;&gt;0, $C$77=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="102" priority="116">
+    <cfRule type="expression" dxfId="101" priority="116">
       <formula>IF($C$77=1,OR($C$78&lt;=0, $C$78&gt;=#REF!/4),$C$78&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="101" priority="114">
+    <cfRule type="expression" dxfId="100" priority="114">
       <formula>IF($C$77=1,AND($C$79&lt;&gt;15, $C$79&lt;&gt;30, $C$79&lt;&gt;45),$C$79&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="100" priority="95">
+    <cfRule type="expression" dxfId="99" priority="95">
       <formula>OR(ISBLANK($C$81), AND($C$81&lt;&gt;0, $C$81&lt;&gt;1), AND($C$77&lt;&gt;0, $C$81=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="99" priority="94">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>IF($C$81=1,OR($C$82&lt;=0, $C$82&gt;=#REF!/4),$C$82&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="98" priority="83">
+    <cfRule type="expression" dxfId="97" priority="83">
       <formula>OR(ISBLANK($C$84), AND($C$84&lt;&gt;0, $C$84&lt;&gt;1), AND($C$88&lt;&gt;0, $C$84=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="97" priority="85">
+    <cfRule type="expression" dxfId="96" priority="85">
       <formula>IF($C$84=1,OR($C$85&lt;=0, $C$85&gt;=$C$9/4),$C$85&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="96" priority="84">
+    <cfRule type="expression" dxfId="95" priority="84">
       <formula>IF($C$84=1,AND($C$86&lt;&gt;15, $C$86&lt;&gt;30, $C$86&lt;&gt;45),$C$86&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="95" priority="152">
+    <cfRule type="expression" dxfId="94" priority="152">
       <formula>OR(ISBLANK($C$88), AND($C$88&lt;&gt;0, $C$88&lt;&gt;1), AND($C$84&lt;&gt;0, $C$88&lt;&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="94" priority="93">
+    <cfRule type="expression" dxfId="93" priority="93">
       <formula>IF($C$88=1,OR($C$89&lt;=0, $C$89&gt;=$C$9/4),$C$89&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="93" priority="111">
+    <cfRule type="expression" dxfId="92" priority="111">
       <formula>OR(ISBLANK($C$91), AND($C$91&lt;&gt;0, $C$91&lt;&gt;1), AND($C$95&lt;&gt;0, $C$91&lt;&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="92" priority="112">
+    <cfRule type="expression" dxfId="91" priority="112">
       <formula>IF($C$91=1,OR($C$92&lt;=0, $C$92&gt;=$C9/4),$C$92&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="91" priority="110">
+    <cfRule type="expression" dxfId="90" priority="110">
       <formula>IF($C$91=1,AND($C$93&lt;&gt;15, $C$93&lt;&gt;30, $C$93&lt;&gt;45),$C$93&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="90" priority="92">
+    <cfRule type="expression" dxfId="89" priority="92">
       <formula>OR(ISBLANK($C$95), AND($C$95&lt;&gt;0, $C$95&lt;&gt;1), AND($C$91&lt;&gt;0, $C$95&lt;&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="88" priority="91">
       <formula>IF($C$95=1,OR($C$96&lt;=0, $C$96&gt;=$C$9/4),$C$96&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="expression" dxfId="88" priority="48">
+    <cfRule type="expression" dxfId="87" priority="48">
       <formula>$C$99&gt;=$C$14/2-$C$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="expression" dxfId="87" priority="47">
+    <cfRule type="expression" dxfId="86" priority="47">
       <formula>$C$99+$C$100&gt;=$C$14/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="expression" dxfId="86" priority="1357">
+    <cfRule type="expression" dxfId="85" priority="1357">
       <formula>$C$101&gt;=($C$15-$P$113)/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="expression" dxfId="85" priority="40">
+    <cfRule type="expression" dxfId="84" priority="40">
       <formula>OR(ISBLANK($C$105), AND($C$105&lt;&gt;0, $C$105&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="expression" dxfId="84" priority="138">
+    <cfRule type="expression" dxfId="83" priority="138">
       <formula>AND(C112&lt;&gt;330, C112&lt;&gt;270, C112&lt;&gt;250)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113">
-    <cfRule type="expression" dxfId="83" priority="137">
+    <cfRule type="expression" dxfId="82" priority="137">
       <formula>C113&lt;&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="expression" dxfId="82" priority="131">
+    <cfRule type="expression" dxfId="81" priority="131">
       <formula>OR(C116&gt;0, ABS(ABS(C116)-740)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="expression" dxfId="81" priority="134">
+    <cfRule type="expression" dxfId="80" priority="134">
       <formula>OR(C117&gt;0, ABS(ABS(C117)-550)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="80" priority="132">
+    <cfRule type="expression" dxfId="79" priority="132">
       <formula>OR(C118&gt;0, ABS(ABS(C118)-1150)&gt;=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="expression" dxfId="79" priority="133">
+    <cfRule type="expression" dxfId="78" priority="133">
       <formula>OR(ABS(C119)&gt;=0.2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="expression" dxfId="78" priority="146">
+    <cfRule type="expression" dxfId="77" priority="146">
       <formula>OR($C$142&lt;=0, $C$142&gt;=MIN($C$64, $C$65))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="expression" dxfId="77" priority="123">
+    <cfRule type="expression" dxfId="76" priority="123">
       <formula>OR($C$143&lt;=0, $C$143&gt;$C$142)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:J30">
-    <cfRule type="expression" dxfId="76" priority="1652">
+    <cfRule type="expression" dxfId="75" priority="1652">
       <formula>OR(AND($C$23&lt;&gt;1, $C$70&lt;&gt;1, $C$74&lt;&gt;1), $C$43=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:J31">
-    <cfRule type="expression" dxfId="75" priority="1741">
+    <cfRule type="expression" dxfId="74" priority="1741">
       <formula>$J$30&lt;&gt;$C$147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:J33 G36:J37 G39:J39">
-    <cfRule type="expression" dxfId="74" priority="1668">
+    <cfRule type="expression" dxfId="73" priority="1668">
       <formula>$J$30&lt;&gt;$C$152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:J43 G44:K44">
-    <cfRule type="expression" dxfId="73" priority="1745">
+    <cfRule type="expression" dxfId="72" priority="1745">
       <formula>$J$42&lt;&gt;$C$148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:J66 G67:K67 G68:J71">
-    <cfRule type="expression" dxfId="72" priority="179">
+    <cfRule type="expression" dxfId="71" priority="179">
       <formula>$J$63=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:J64 G72:J73">
-    <cfRule type="expression" dxfId="71" priority="1747">
+    <cfRule type="expression" dxfId="70" priority="1747">
       <formula>$J$63&lt;&gt;$C$147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:J66 G69:J70 G74:J74">
-    <cfRule type="expression" dxfId="70" priority="1670">
+    <cfRule type="expression" dxfId="69" priority="1670">
       <formula>$J$63&lt;&gt;$C$152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G79:J80 G81:K81">
-    <cfRule type="expression" dxfId="69" priority="1752">
+    <cfRule type="expression" dxfId="68" priority="1752">
       <formula>$J$79&lt;&gt;$C$148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:J85 G86:K86 G87:J89">
-    <cfRule type="expression" dxfId="68" priority="1754">
+    <cfRule type="expression" dxfId="67" priority="1754">
       <formula>$J$84&lt;&gt;$C$150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92:J93 G94:K94 G95:J95">
-    <cfRule type="expression" dxfId="67" priority="1757">
+    <cfRule type="expression" dxfId="66" priority="1757">
       <formula>$J$92&lt;&gt;$C$151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:J102 G103:K103 G104:J106">
-    <cfRule type="expression" dxfId="66" priority="65">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>NOT($J$100&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:J111 G112:K112 G113:J114">
-    <cfRule type="expression" dxfId="65" priority="1760">
+    <cfRule type="expression" dxfId="64" priority="1760">
       <formula>OR($J$110&lt;&gt;$C$148, $C$32&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G144:J149">
-    <cfRule type="expression" dxfId="64" priority="78">
+    <cfRule type="expression" dxfId="63" priority="78">
       <formula>$C$32&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:J165">
-    <cfRule type="expression" dxfId="63" priority="44">
+    <cfRule type="expression" dxfId="62" priority="44">
       <formula>$C$98&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G169:J172">
-    <cfRule type="expression" dxfId="62" priority="28">
+    <cfRule type="expression" dxfId="61" priority="28">
       <formula>$C$105&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G188:J189">
-    <cfRule type="expression" dxfId="61" priority="1653">
+    <cfRule type="expression" dxfId="60" priority="1653">
       <formula>AND($C$32&lt;&gt;0, $C$35&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G190:J191">
-    <cfRule type="expression" dxfId="60" priority="1587">
+    <cfRule type="expression" dxfId="59" priority="1587">
       <formula>OR($C$32&lt;&gt;1, AND($C$32&lt;&gt;0, $C$35&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228:J228 G230:J230 G231:K231 G232:J232">
-    <cfRule type="expression" dxfId="59" priority="1768">
+    <cfRule type="expression" dxfId="58" priority="1768">
       <formula>$J$230&lt;&gt;$C$156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G235:J235 G236:K236 G237:J241 G242:K242 G243:J244">
-    <cfRule type="expression" dxfId="58" priority="72">
+    <cfRule type="expression" dxfId="57" priority="72">
       <formula>OR($C$23&lt;&gt;1, AND($C$23&lt;&gt;0, $C$25&lt;&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G247:J247 G248:K248 G249:J253 G254:K254 G255:J257">
-    <cfRule type="expression" dxfId="57" priority="41">
+    <cfRule type="expression" dxfId="56" priority="41">
       <formula>$C$25&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G286:J287 G288:K289 G290:J297">
-    <cfRule type="expression" dxfId="56" priority="171">
+    <cfRule type="expression" dxfId="55" priority="171">
       <formula>OR($C$23&lt;&gt;1, $C$32&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:K17">
-    <cfRule type="expression" dxfId="55" priority="153">
+    <cfRule type="expression" dxfId="54" priority="153">
       <formula>$C$23&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:K18 G22:K22">
-    <cfRule type="expression" dxfId="54" priority="1655">
+    <cfRule type="expression" dxfId="53" priority="1655">
       <formula>OR($C$43&lt;&gt;1, AND($C$23=1, $C$32=0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:K19">
-    <cfRule type="expression" dxfId="53" priority="1657">
+    <cfRule type="expression" dxfId="52" priority="1657">
       <formula>OR($C$43&lt;&gt;2, AND($C$23=0, $C$32=1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:K21">
-    <cfRule type="expression" dxfId="52" priority="151">
+    <cfRule type="expression" dxfId="51" priority="151">
       <formula>$C$32&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:K23">
-    <cfRule type="expression" dxfId="51" priority="1658">
+    <cfRule type="expression" dxfId="50" priority="1658">
       <formula>OR($C$32&lt;&gt;1, AND($C$32&lt;&gt;0, $C$23&lt;&gt;0, $C$43&lt;&gt;2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:K25">
-    <cfRule type="expression" dxfId="50" priority="1659">
+    <cfRule type="expression" dxfId="49" priority="1659">
       <formula>NOT(AND($C$47&lt;&gt;0,$C$32&lt;&gt;1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:K26">
-    <cfRule type="expression" dxfId="49" priority="1660">
+    <cfRule type="expression" dxfId="48" priority="1660">
       <formula>OR($C$32&lt;&gt;0, AND($C$32&lt;&gt;1, $C$47&lt;&gt;0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G242:K242">
-    <cfRule type="expression" dxfId="48" priority="101">
+    <cfRule type="expression" dxfId="47" priority="101">
       <formula>$C$23&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:J76">
-    <cfRule type="expression" dxfId="47" priority="54">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>NOT($J$42="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:J119">
-    <cfRule type="expression" dxfId="46" priority="31">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>$C$60&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134:J134">
-    <cfRule type="expression" dxfId="45" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>$C$60&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:K60">
-    <cfRule type="expression" dxfId="44" priority="57">
+    <cfRule type="expression" dxfId="43" priority="57">
       <formula>NOT($J$42="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75:K76">
-    <cfRule type="expression" dxfId="43" priority="56">
+    <cfRule type="expression" dxfId="42" priority="56">
       <formula>NOT($J$63="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97:K97">
-    <cfRule type="expression" dxfId="42" priority="55">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>NOT($J$79="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:K107">
-    <cfRule type="expression" dxfId="41" priority="1549">
+    <cfRule type="expression" dxfId="40" priority="1549">
       <formula>AND($C$32&lt;&gt;1, $C$47&lt;&gt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:K115">
-    <cfRule type="expression" dxfId="40" priority="52">
+    <cfRule type="expression" dxfId="39" priority="52">
       <formula>NOT($J$110="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="38" priority="25">
       <formula>I2="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="37" priority="26">
       <formula>I2="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="36" priority="24">
       <formula>I2="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="23">
+    <cfRule type="expression" dxfId="35" priority="23">
       <formula>I2="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="34" priority="22">
       <formula>$C$60&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>I4="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>I4="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10">
+    <cfRule type="expression" dxfId="31" priority="10">
       <formula>I4="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11">
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>I4="B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I116 I118:I132 I134:I135 I137:I210 I212:I225 I227:I271 I273:I283 I285:I304 I306:I1048576">
-    <cfRule type="expression" dxfId="30" priority="1681">
+    <cfRule type="expression" dxfId="29" priority="1681">
       <formula>I7="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1742">
+    <cfRule type="expression" dxfId="28" priority="1742">
       <formula>I7="Z"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1749">
+    <cfRule type="expression" dxfId="27" priority="1749">
       <formula>I7="B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I116 I137:I210 I285:I304 I227:I271 I118:I132 I134:I135 I212:I225 I273:I283 I306:I1048576">
-    <cfRule type="expression" dxfId="27" priority="1673">
+    <cfRule type="expression" dxfId="26" priority="1673">
       <formula>I7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="26" priority="1688">
+    <cfRule type="expression" dxfId="25" priority="1688">
       <formula>$J$10&lt;=$C$112</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="25" priority="67">
+    <cfRule type="expression" dxfId="24" priority="67">
       <formula>$J$11&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="24" priority="66">
+    <cfRule type="expression" dxfId="23" priority="66">
       <formula>$J$12&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="expression" dxfId="23" priority="1763">
+    <cfRule type="expression" dxfId="22" priority="1763">
       <formula>AND($J$30&lt;&gt;$C$147, $J$30&lt;&gt;$C$152)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="22" priority="1764">
+    <cfRule type="expression" dxfId="21" priority="1764">
       <formula>$J$47&lt;&gt;$C$150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="expression" dxfId="21" priority="1765">
+    <cfRule type="expression" dxfId="20" priority="1765">
       <formula>$J$55&lt;&gt;$C$151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J100">
-    <cfRule type="expression" dxfId="20" priority="1766">
+    <cfRule type="expression" dxfId="19" priority="1766">
       <formula>$J$100&lt;&gt;$C$149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118">
-    <cfRule type="expression" dxfId="19" priority="189">
+    <cfRule type="expression" dxfId="18" priority="189">
       <formula>OR($J$118&lt;&gt;#REF!, #REF!&lt;&gt;#REF!, #REF!&lt;&gt;$J$118)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145 J158 J170">
-    <cfRule type="expression" dxfId="18" priority="1772">
+    <cfRule type="expression" dxfId="17" priority="1772">
       <formula>$J$145&lt;&gt;$C$157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J180">
-    <cfRule type="expression" dxfId="17" priority="1775">
+    <cfRule type="expression" dxfId="16" priority="1775">
       <formula>$J$180&lt;&gt;$C$159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J201">
-    <cfRule type="expression" dxfId="16" priority="1776">
+    <cfRule type="expression" dxfId="15" priority="1776">
       <formula>$J$201&lt;&gt;$C$160</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J215">
-    <cfRule type="expression" dxfId="15" priority="1793">
+    <cfRule type="expression" dxfId="14" priority="1793">
       <formula>$J$215&lt;&gt;$C$162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J237">
-    <cfRule type="expression" dxfId="14" priority="1777">
+    <cfRule type="expression" dxfId="13" priority="1777">
       <formula>$C$23&lt;&gt;1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1778">
+    <cfRule type="expression" dxfId="12" priority="1778">
       <formula>$J$237&lt;&gt;$C$157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249">
-    <cfRule type="expression" dxfId="12" priority="1779">
+    <cfRule type="expression" dxfId="11" priority="1779">
       <formula>$J$249&lt;&gt;$C$158</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J262">
-    <cfRule type="expression" dxfId="11" priority="1780">
+    <cfRule type="expression" dxfId="10" priority="1780">
       <formula>$J$262&lt;&gt;$C$160</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J287 J276">
-    <cfRule type="expression" dxfId="10" priority="1794">
+    <cfRule type="expression" dxfId="9" priority="1794">
       <formula>$J$276&lt;&gt;$C$162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J306">
-    <cfRule type="expression" dxfId="9" priority="130">
+    <cfRule type="expression" dxfId="8" priority="130">
       <formula>OR($J$306&lt;=1, INT($J$306)&lt;&gt;$J$306)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J307">
-    <cfRule type="expression" dxfId="8" priority="122">
+    <cfRule type="expression" dxfId="7" priority="122">
       <formula>OR($J$307&lt;0, INT($J$307)&lt;&gt;$J$307)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J308">
-    <cfRule type="expression" dxfId="7" priority="127">
+    <cfRule type="expression" dxfId="6" priority="127">
       <formula>OR($J$308&lt;1, INT($J$308)&lt;&gt;$J$308)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J309">
-    <cfRule type="expression" dxfId="6" priority="126">
+    <cfRule type="expression" dxfId="5" priority="126">
       <formula>OR($J$309&lt;0, INT($J$309)&lt;&gt;$J$309)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J333">
-    <cfRule type="expression" dxfId="5" priority="1767">
+    <cfRule type="expression" dxfId="4" priority="1767">
       <formula>$J$333&lt;=$C$143/2+$C$144</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137:K137 J138 J139:K139 K140 J141:K141 J179 J200 J214 J229 J236 J261 J275">
-    <cfRule type="expression" dxfId="4" priority="1781">
+    <cfRule type="expression" dxfId="3" priority="1781">
       <formula>$J$139&lt;&gt;$C$156</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="2" priority="128">
       <formula>ISERROR(INDIRECT($P$2&amp;"!$G$45"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P115:P117 J337:J352">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="1" priority="125">
       <formula>$J$309&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P169:P182">
-    <cfRule type="expression" dxfId="1" priority="124">
+    <cfRule type="expression" dxfId="0" priority="124">
       <formula>$J$309&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27595,1057 +27389,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8889D6BD-0144-42EA-B218-804738F98B81}">
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.75" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="87" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="88" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="87"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>650</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>651</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>652</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>653</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>654</v>
-      </c>
-      <c r="G1" s="89" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="87">
-        <v>0</v>
-      </c>
-      <c r="B2" s="88">
-        <v>156.81401534334941</v>
-      </c>
-      <c r="C2" s="88">
-        <v>155.8000223569716</v>
-      </c>
-      <c r="D2" s="88">
-        <f>4.5-$A2/$A$38</f>
-        <v>4.5</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="87">
-        <v>25</v>
-      </c>
-      <c r="B3" s="88">
-        <v>156.69159117721759</v>
-      </c>
-      <c r="C3" s="88">
-        <v>155.67838981170061</v>
-      </c>
-      <c r="D3" s="88">
-        <f t="shared" ref="D3:D38" si="0">4.5-$A3/$A$38</f>
-        <v>4.4722222222222223</v>
-      </c>
-      <c r="E3" s="89">
-        <f t="shared" ref="E3:F18" si="1">IF($A3="","",(B2-B3)*1000/(B2*($A3-$A2))*100)</f>
-        <v>3.1227863367638409</v>
-      </c>
-      <c r="F3" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367643778</v>
-      </c>
-      <c r="G3" s="89">
-        <f>AVERAGE(E3,F3)</f>
-        <v>3.1227863367641095</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="87">
-        <v>50</v>
-      </c>
-      <c r="B4" s="88">
-        <v>156.56926258721407</v>
-      </c>
-      <c r="C4" s="88">
-        <v>155.55685222454224</v>
-      </c>
-      <c r="D4" s="88">
-        <f t="shared" si="0"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="E4" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367643307</v>
-      </c>
-      <c r="F4" s="89">
-        <f t="shared" si="1"/>
-        <v>3.122786336764567</v>
-      </c>
-      <c r="G4" s="89">
-        <f t="shared" ref="G4:G38" si="2">AVERAGE(E4,F4)</f>
-        <v>3.1227863367644488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="87">
-        <v>75</v>
-      </c>
-      <c r="B5" s="88">
-        <v>156.44702949872294</v>
-      </c>
-      <c r="C5" s="88">
-        <v>155.43540952136303</v>
-      </c>
-      <c r="D5" s="88">
-        <f t="shared" si="0"/>
-        <v>4.416666666666667</v>
-      </c>
-      <c r="E5" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367636659</v>
-      </c>
-      <c r="F5" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367642161</v>
-      </c>
-      <c r="G5" s="89">
-        <f t="shared" si="2"/>
-        <v>3.1227863367639408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="87">
-        <v>100</v>
-      </c>
-      <c r="B6" s="88">
-        <v>156.32489183718647</v>
-      </c>
-      <c r="C6" s="88">
-        <v>155.31406162808736</v>
-      </c>
-      <c r="D6" s="88">
-        <f t="shared" si="0"/>
-        <v>4.3888888888888893</v>
-      </c>
-      <c r="E6" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367637139</v>
-      </c>
-      <c r="F6" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367642903</v>
-      </c>
-      <c r="G6" s="89">
-        <f t="shared" si="2"/>
-        <v>3.1227863367640021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="87">
-        <v>125</v>
-      </c>
-      <c r="B7" s="88">
-        <v>156.20284952810516</v>
-      </c>
-      <c r="C7" s="88">
-        <v>155.19280847069746</v>
-      </c>
-      <c r="D7" s="88">
-        <f t="shared" si="0"/>
-        <v>4.3611111111111107</v>
-      </c>
-      <c r="E7" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367637316</v>
-      </c>
-      <c r="F7" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367645954</v>
-      </c>
-      <c r="G7" s="89">
-        <f t="shared" si="2"/>
-        <v>3.1227863367641637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="87">
-        <v>150</v>
-      </c>
-      <c r="B8" s="88">
-        <v>156.08090249703767</v>
-      </c>
-      <c r="C8" s="88">
-        <v>155.07164997523336</v>
-      </c>
-      <c r="D8" s="88">
-        <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="E8" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367639923</v>
-      </c>
-      <c r="F8" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1227863367645048</v>
-      </c>
-      <c r="G8" s="89">
-        <f t="shared" si="2"/>
-        <v>3.1227863367642485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="87">
-        <v>175</v>
-      </c>
-      <c r="B9" s="88">
-        <v>155.95895546597018</v>
-      </c>
-      <c r="C9" s="88">
-        <v>154.95049147976925</v>
-      </c>
-      <c r="D9" s="88">
-        <f t="shared" si="0"/>
-        <v>4.3055555555555554</v>
-      </c>
-      <c r="E9" s="89">
-        <f t="shared" si="1"/>
-        <v>3.125226190175487</v>
-      </c>
-      <c r="F9" s="89">
-        <f t="shared" si="1"/>
-        <v>3.1252261901759995</v>
-      </c>
-      <c r="G9" s="89">
-        <f t="shared" si="2"/>
-        <v>3.1252261901757432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="87">
-        <v>200</v>
-      </c>
-      <c r="B10" s="88">
-        <v>155.84853718389309</v>
-      </c>
-      <c r="C10" s="88">
-        <v>154.8407871859371</v>
-      </c>
-      <c r="D10" s="88">
-        <f t="shared" si="0"/>
-        <v>4.2777777777777777</v>
-      </c>
-      <c r="E10" s="89">
-        <f t="shared" si="1"/>
-        <v>2.8319831136900517</v>
-      </c>
-      <c r="F10" s="89">
-        <f t="shared" si="1"/>
-        <v>2.8319831136895868</v>
-      </c>
-      <c r="G10" s="89">
-        <f t="shared" si="2"/>
-        <v>2.8319831136898195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="87">
-        <v>225</v>
-      </c>
-      <c r="B11" s="90">
-        <v>155.74862076734124</v>
-      </c>
-      <c r="C11" s="88">
-        <v>154.74151685031995</v>
-      </c>
-      <c r="D11" s="88">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="E11" s="89">
-        <f t="shared" si="1"/>
-        <v>2.5644492622719515</v>
-      </c>
-      <c r="F11" s="89">
-        <f t="shared" si="1"/>
-        <v>2.564449262272023</v>
-      </c>
-      <c r="G11" s="89">
-        <f t="shared" si="2"/>
-        <v>2.564449262271987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="87">
-        <v>250</v>
-      </c>
-      <c r="B12" s="88">
-        <v>155.65822980411488</v>
-      </c>
-      <c r="C12" s="88">
-        <v>154.65171037440834</v>
-      </c>
-      <c r="D12" s="88">
-        <f t="shared" si="0"/>
-        <v>4.2222222222222223</v>
-      </c>
-      <c r="E12" s="89">
-        <f t="shared" si="1"/>
-        <v>2.3214578153184866</v>
-      </c>
-      <c r="F12" s="89">
-        <f t="shared" si="1"/>
-        <v>2.3214578153188006</v>
-      </c>
-      <c r="G12" s="89">
-        <f t="shared" si="2"/>
-        <v>2.3214578153186434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="87">
-        <v>275</v>
-      </c>
-      <c r="B13" s="88">
-        <v>155.57643822173858</v>
-      </c>
-      <c r="C13" s="88">
-        <v>154.57044767390968</v>
-      </c>
-      <c r="D13" s="88">
-        <f t="shared" si="0"/>
-        <v>4.1944444444444446</v>
-      </c>
-      <c r="E13" s="89">
-        <f t="shared" si="1"/>
-        <v>2.1018248114276106</v>
-      </c>
-      <c r="F13" s="89">
-        <f t="shared" si="1"/>
-        <v>2.1018248114274343</v>
-      </c>
-      <c r="G13" s="89">
-        <f t="shared" si="2"/>
-        <v>2.1018248114275222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="87">
-        <v>300</v>
-      </c>
-      <c r="B14" s="88">
-        <v>155.50354552033207</v>
-      </c>
-      <c r="C14" s="88">
-        <v>154.49802631231182</v>
-      </c>
-      <c r="D14" s="88">
-        <f t="shared" si="0"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="E14" s="89">
-        <f t="shared" si="1"/>
-        <v>1.8741321562491235</v>
-      </c>
-      <c r="F14" s="89">
-        <f t="shared" si="1"/>
-        <v>1.8741321562487903</v>
-      </c>
-      <c r="G14" s="89">
-        <f t="shared" si="2"/>
-        <v>1.8741321562489568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="87">
-        <v>325</v>
-      </c>
-      <c r="B15" s="88">
-        <v>155.43626618399327</v>
-      </c>
-      <c r="C15" s="88">
-        <v>154.43118201856169</v>
-      </c>
-      <c r="D15" s="88">
-        <f t="shared" si="0"/>
-        <v>4.1388888888888893</v>
-      </c>
-      <c r="E15" s="89">
-        <f t="shared" si="1"/>
-        <v>1.7306187100409951</v>
-      </c>
-      <c r="F15" s="89">
-        <f t="shared" si="1"/>
-        <v>1.730618710041347</v>
-      </c>
-      <c r="G15" s="89">
-        <f t="shared" si="2"/>
-        <v>1.730618710041171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="87">
-        <v>350</v>
-      </c>
-      <c r="B16" s="88">
-        <v>155.37512324452476</v>
-      </c>
-      <c r="C16" s="88">
-        <v>154.3704344424263</v>
-      </c>
-      <c r="D16" s="88">
-        <f t="shared" si="0"/>
-        <v>4.1111111111111107</v>
-      </c>
-      <c r="E16" s="89">
-        <f t="shared" si="1"/>
-        <v>1.573453633944967</v>
-      </c>
-      <c r="F16" s="89">
-        <f t="shared" si="1"/>
-        <v>1.5734536339450531</v>
-      </c>
-      <c r="G16" s="89">
-        <f t="shared" si="2"/>
-        <v>1.57345363394501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="87">
-        <v>375</v>
-      </c>
-      <c r="B17" s="88">
-        <v>155.31939136112649</v>
-      </c>
-      <c r="C17" s="88">
-        <v>154.31506293331449</v>
-      </c>
-      <c r="D17" s="88">
-        <f t="shared" si="0"/>
-        <v>4.083333333333333</v>
-      </c>
-      <c r="E17" s="89">
-        <f t="shared" si="1"/>
-        <v>1.4347697941467015</v>
-      </c>
-      <c r="F17" s="89">
-        <f t="shared" si="1"/>
-        <v>1.4347697941462783</v>
-      </c>
-      <c r="G17" s="89">
-        <f t="shared" si="2"/>
-        <v>1.4347697941464899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="87">
-        <v>400</v>
-      </c>
-      <c r="B18" s="88">
-        <v>155.26839559792776</v>
-      </c>
-      <c r="C18" s="88">
-        <v>154.26439691963532</v>
-      </c>
-      <c r="D18" s="88">
-        <f t="shared" si="0"/>
-        <v>4.0555555555555554</v>
-      </c>
-      <c r="E18" s="89">
-        <f t="shared" si="1"/>
-        <v>1.3133134955482693</v>
-      </c>
-      <c r="F18" s="89">
-        <f t="shared" si="1"/>
-        <v>1.3133134955482941</v>
-      </c>
-      <c r="G18" s="89">
-        <f t="shared" si="2"/>
-        <v>1.3133134955482817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="87">
-        <v>425</v>
-      </c>
-      <c r="B19" s="88">
-        <v>155.22151142398732</v>
-      </c>
-      <c r="C19" s="88">
-        <v>154.21781590879826</v>
-      </c>
-      <c r="D19" s="88">
-        <f t="shared" si="0"/>
-        <v>4.0277777777777777</v>
-      </c>
-      <c r="E19" s="89">
-        <f t="shared" ref="E19:F34" si="3">IF($A19="","",(B18-B19)*1000/(B18*($A19-$A18))*100)</f>
-        <v>1.2078227191024522</v>
-      </c>
-      <c r="F19" s="89">
-        <f t="shared" si="3"/>
-        <v>1.2078227191028552</v>
-      </c>
-      <c r="G19" s="89">
-        <f t="shared" si="2"/>
-        <v>1.2078227191026536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="87">
-        <v>450</v>
-      </c>
-      <c r="B20" s="88">
-        <v>155.17816471329317</v>
-      </c>
-      <c r="C20" s="88">
-        <v>154.17474948721303</v>
-      </c>
-      <c r="D20" s="88">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E20" s="89">
-        <f t="shared" si="3"/>
-        <v>1.1170284401045576</v>
-      </c>
-      <c r="F20" s="89">
-        <f t="shared" si="3"/>
-        <v>1.1170284401042734</v>
-      </c>
-      <c r="G20" s="89">
-        <f t="shared" si="2"/>
-        <v>1.1170284401044155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="87">
-        <v>475</v>
-      </c>
-      <c r="B21" s="88">
-        <v>155.13783177574703</v>
-      </c>
-      <c r="C21" s="88">
-        <v>154.13467735107358</v>
-      </c>
-      <c r="D21" s="88">
-        <f t="shared" si="0"/>
-        <v>3.9722222222222223</v>
-      </c>
-      <c r="E21" s="89">
-        <f t="shared" si="3"/>
-        <v>1.0396549700316071</v>
-      </c>
-      <c r="F21" s="89">
-        <f t="shared" si="3"/>
-        <v>1.0396549700320643</v>
-      </c>
-      <c r="G21" s="89">
-        <f t="shared" si="2"/>
-        <v>1.0396549700318358</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="87">
-        <v>500</v>
-      </c>
-      <c r="B22" s="88">
-        <v>155.10003923138305</v>
-      </c>
-      <c r="C22" s="88">
-        <v>154.09712918139027</v>
-      </c>
-      <c r="D22" s="88">
-        <f t="shared" si="0"/>
-        <v>3.9444444444444446</v>
-      </c>
-      <c r="E22" s="89">
-        <f t="shared" si="3"/>
-        <v>0.97442497246217741</v>
-      </c>
-      <c r="F22" s="89">
-        <f t="shared" si="3"/>
-        <v>0.97442497246174298</v>
-      </c>
-      <c r="G22" s="89">
-        <f t="shared" si="2"/>
-        <v>0.97442497246196025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="87">
-        <v>525</v>
-      </c>
-      <c r="B23" s="88">
-        <v>155.06436420212194</v>
-      </c>
-      <c r="C23" s="88">
-        <v>154.06168483450395</v>
-      </c>
-      <c r="D23" s="88">
-        <f t="shared" si="0"/>
-        <v>3.9166666666666665</v>
-      </c>
-      <c r="E23" s="89">
-        <f t="shared" si="3"/>
-        <v>0.92005210154441697</v>
-      </c>
-      <c r="F23" s="89">
-        <f t="shared" si="3"/>
-        <v>0.92005210154435102</v>
-      </c>
-      <c r="G23" s="89">
-        <f t="shared" si="2"/>
-        <v>0.92005210154438399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="87">
-        <v>550</v>
-      </c>
-      <c r="B24" s="88">
-        <v>155.03043418162915</v>
-      </c>
-      <c r="C24" s="88">
-        <v>154.02797421278575</v>
-      </c>
-      <c r="D24" s="88">
-        <f t="shared" si="0"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="E24" s="89">
-        <f t="shared" si="3"/>
-        <v>0.87524998196394554</v>
-      </c>
-      <c r="F24" s="89">
-        <f t="shared" si="3"/>
-        <v>0.87524998196436243</v>
-      </c>
-      <c r="G24" s="89">
-        <f t="shared" si="2"/>
-        <v>0.87524998196415393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="87">
-        <v>575</v>
-      </c>
-      <c r="B25" s="88">
-        <v>154.99792706849959</v>
-      </c>
-      <c r="C25" s="88">
-        <v>153.99567729760724</v>
-      </c>
-      <c r="D25" s="88">
-        <f t="shared" si="0"/>
-        <v>3.8611111111111112</v>
-      </c>
-      <c r="E25" s="89">
-        <f t="shared" si="3"/>
-        <v>0.83872855807060609</v>
-      </c>
-      <c r="F25" s="89">
-        <f t="shared" si="3"/>
-        <v>0.83872855807059032</v>
-      </c>
-      <c r="G25" s="89">
-        <f t="shared" si="2"/>
-        <v>0.83872855807059821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="87">
-        <v>600</v>
-      </c>
-      <c r="B26" s="88">
-        <v>154.96657116625749</v>
-      </c>
-      <c r="C26" s="88">
-        <v>153.96452414934021</v>
-      </c>
-      <c r="D26" s="88">
-        <f t="shared" si="0"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="E26" s="89">
-        <f t="shared" si="3"/>
-        <v>0.80919539596784695</v>
-      </c>
-      <c r="F26" s="89">
-        <f t="shared" si="3"/>
-        <v>0.80919539596769119</v>
-      </c>
-      <c r="G26" s="89">
-        <f t="shared" si="2"/>
-        <v>0.80919539596776913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="87">
-        <v>625</v>
-      </c>
-      <c r="B27" s="88">
-        <v>154.93614518335653</v>
-      </c>
-      <c r="C27" s="88">
-        <v>153.93429490735681</v>
-      </c>
-      <c r="D27" s="88">
-        <f t="shared" si="0"/>
-        <v>3.8055555555555554</v>
-      </c>
-      <c r="E27" s="89">
-        <f t="shared" si="3"/>
-        <v>0.78535603316207803</v>
-      </c>
-      <c r="F27" s="89">
-        <f t="shared" si="3"/>
-        <v>0.7853560331617826</v>
-      </c>
-      <c r="G27" s="89">
-        <f t="shared" si="2"/>
-        <v>0.78535603316193026</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="87">
-        <v>650</v>
-      </c>
-      <c r="B28" s="88">
-        <v>154.90647823317966</v>
-      </c>
-      <c r="C28" s="88">
-        <v>153.90481979002945</v>
-      </c>
-      <c r="D28" s="88">
-        <f t="shared" si="0"/>
-        <v>3.7777777777777777</v>
-      </c>
-      <c r="E28" s="89">
-        <f t="shared" si="3"/>
-        <v>0.76591424529804486</v>
-      </c>
-      <c r="F28" s="89">
-        <f t="shared" si="3"/>
-        <v>0.76591424529808594</v>
-      </c>
-      <c r="G28" s="89">
-        <f t="shared" si="2"/>
-        <v>0.7659142452980654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="87">
-        <v>675</v>
-      </c>
-      <c r="B29" s="88">
-        <v>154.87744983403928</v>
-      </c>
-      <c r="C29" s="88">
-        <v>153.87597909473092</v>
-      </c>
-      <c r="D29" s="88">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="E29" s="89">
-        <f t="shared" si="3"/>
-        <v>0.74957224440094328</v>
-      </c>
-      <c r="F29" s="89">
-        <f t="shared" si="3"/>
-        <v>0.74957224440076597</v>
-      </c>
-      <c r="G29" s="89">
-        <f t="shared" si="2"/>
-        <v>0.74957224440085457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="87">
-        <v>700</v>
-      </c>
-      <c r="B30" s="88">
-        <v>154.84898990917716</v>
-      </c>
-      <c r="C30" s="88">
-        <v>153.84770319783428</v>
-      </c>
-      <c r="D30" s="88">
-        <f t="shared" si="0"/>
-        <v>3.7222222222222223</v>
-      </c>
-      <c r="E30" s="89">
-        <f t="shared" si="3"/>
-        <v>0.73503082321191837</v>
-      </c>
-      <c r="F30" s="89">
-        <f t="shared" si="3"/>
-        <v>0.7350308232121725</v>
-      </c>
-      <c r="G30" s="89">
-        <f t="shared" si="2"/>
-        <v>0.73503082321204549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="87">
-        <v>725</v>
-      </c>
-      <c r="B31" s="88">
-        <v>154.82107878676439</v>
-      </c>
-      <c r="C31" s="88">
-        <v>153.81997255471288</v>
-      </c>
-      <c r="D31" s="88">
-        <f t="shared" si="0"/>
-        <v>3.6944444444444446</v>
-      </c>
-      <c r="E31" s="89">
-        <f t="shared" si="3"/>
-        <v>0.72098946022560895</v>
-      </c>
-      <c r="F31" s="89">
-        <f t="shared" si="3"/>
-        <v>0.72098946022593247</v>
-      </c>
-      <c r="G31" s="89">
-        <f t="shared" si="2"/>
-        <v>0.72098946022577071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="87">
-        <v>750</v>
-      </c>
-      <c r="B32" s="88">
-        <v>154.79374719990147</v>
-      </c>
-      <c r="C32" s="88">
-        <v>153.79281769974045</v>
-      </c>
-      <c r="D32" s="88">
-        <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="E32" s="89">
-        <f t="shared" si="3"/>
-        <v>0.70614640014381824</v>
-      </c>
-      <c r="F32" s="89">
-        <f t="shared" si="3"/>
-        <v>0.70614640014356145</v>
-      </c>
-      <c r="G32" s="89">
-        <f t="shared" si="2"/>
-        <v>0.7061464001436899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="87">
-        <v>775</v>
-      </c>
-      <c r="B33" s="88">
-        <v>154.76707628661828</v>
-      </c>
-      <c r="C33" s="88">
-        <v>153.76631924629098</v>
-      </c>
-      <c r="D33" s="88">
-        <f t="shared" si="0"/>
-        <v>3.6388888888888888</v>
-      </c>
-      <c r="E33" s="89">
-        <f t="shared" si="3"/>
-        <v>0.68919872451320008</v>
-      </c>
-      <c r="F33" s="89">
-        <f t="shared" si="3"/>
-        <v>0.68919872451291808</v>
-      </c>
-      <c r="G33" s="89">
-        <f t="shared" si="2"/>
-        <v>0.68919872451305908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="87">
-        <v>800</v>
-      </c>
-      <c r="B34" s="88">
-        <v>154.74119758987408</v>
-      </c>
-      <c r="C34" s="88">
-        <v>153.74060788673879</v>
-      </c>
-      <c r="D34" s="88">
-        <f t="shared" si="0"/>
-        <v>3.6111111111111112</v>
-      </c>
-      <c r="E34" s="89">
-        <f t="shared" si="3"/>
-        <v>0.66884242734611088</v>
-      </c>
-      <c r="F34" s="89">
-        <f t="shared" si="3"/>
-        <v>0.6688424273460718</v>
-      </c>
-      <c r="G34" s="89">
-        <f t="shared" si="2"/>
-        <v>0.66884242734609134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="87">
-        <v>825</v>
-      </c>
-      <c r="B35" s="88">
-        <v>154.71629305755746</v>
-      </c>
-      <c r="C35" s="88">
-        <v>153.71586439245849</v>
-      </c>
-      <c r="D35" s="88">
-        <f t="shared" si="0"/>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="E35" s="89">
-        <f t="shared" ref="E35:F38" si="4">IF($A35="","",(B34-B35)*1000/(B34*($A35-$A34))*100)</f>
-        <v>0.6437725106049248</v>
-      </c>
-      <c r="F35" s="89">
-        <f t="shared" si="4"/>
-        <v>0.64377251060512808</v>
-      </c>
-      <c r="G35" s="89">
-        <f t="shared" si="2"/>
-        <v>0.64377251060502649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="87">
-        <v>850</v>
-      </c>
-      <c r="B36" s="88">
-        <v>154.69259504248643</v>
-      </c>
-      <c r="C36" s="88">
-        <v>153.69231961382502</v>
-      </c>
-      <c r="D36" s="88">
-        <f t="shared" si="0"/>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="E36" s="89">
-        <f t="shared" si="4"/>
-        <v>0.61268311443365897</v>
-      </c>
-      <c r="F36" s="89">
-        <f t="shared" si="4"/>
-        <v>0.6126831144338214</v>
-      </c>
-      <c r="G36" s="89">
-        <f t="shared" si="2"/>
-        <v>0.61268311443374013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="87">
-        <v>875</v>
-      </c>
-      <c r="B37" s="88">
-        <v>154.67038630240836</v>
-      </c>
-      <c r="C37" s="88">
-        <v>153.67025448021369</v>
-      </c>
-      <c r="D37" s="88">
-        <f t="shared" si="0"/>
-        <v>3.5277777777777777</v>
-      </c>
-      <c r="E37" s="89">
-        <f t="shared" si="4"/>
-        <v>0.57426769709231873</v>
-      </c>
-      <c r="F37" s="89">
-        <f t="shared" si="4"/>
-        <v>0.57426769709187397</v>
-      </c>
-      <c r="G37" s="89">
-        <f t="shared" si="2"/>
-        <v>0.57426769709209635</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="87">
-        <v>900</v>
-      </c>
-      <c r="B38" s="88">
-        <v>154.65</v>
-      </c>
-      <c r="C38" s="88">
-        <v>153.65</v>
-      </c>
-      <c r="D38" s="88">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E38" s="89">
-        <f t="shared" si="4"/>
-        <v>0.52721927954574876</v>
-      </c>
-      <c r="F38" s="89">
-        <f t="shared" si="4"/>
-        <v>0.5272192795460714</v>
-      </c>
-      <c r="G38" s="89">
-        <f t="shared" si="2"/>
-        <v>0.52721927954591008</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B2:D38">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 A1:D1048576" xr:uid="{295F13CC-7271-4592-9289-2E427053F33C}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>